--- a/Output/Cortisol.xlsx
+++ b/Output/Cortisol.xlsx
@@ -370,22 +370,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Analyse_1</t>
+          <t>Corti1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Analyse_2</t>
+          <t>Corti2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Analyse_3</t>
+          <t>Corti3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Analyse_4</t>
+          <t>Corti4</t>
         </is>
       </c>
     </row>

--- a/Output/Cortisol.xlsx
+++ b/Output/Cortisol.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,1431 +457,1563 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>YaMe</t>
+          <t>JeVe</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D5">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E5">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="F5">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GbEl</t>
+          <t>YaMe</t>
         </is>
       </c>
       <c r="C6">
+        <v>0.06</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
         <v>0.13</v>
       </c>
-      <c r="D6">
-        <v>0.11</v>
-      </c>
-      <c r="E6">
-        <v>0.09</v>
-      </c>
       <c r="F6">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VoMa</t>
+          <t>GbEl</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="D7">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E7">
         <v>0.09</v>
       </c>
       <c r="F7">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SoKa</t>
+          <t>MoTh</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="E8">
-        <v>0.41</v>
+        <v>0.09</v>
       </c>
       <c r="F8">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZaHa</t>
-        </is>
+          <t>VoMa</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>0.08</v>
+      </c>
+      <c r="D9">
+        <v>0.09</v>
+      </c>
+      <c r="E9">
+        <v>0.09</v>
+      </c>
+      <c r="F9">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NkPl</t>
+          <t>SoKa</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D10">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0.11</v>
+        <v>0.41</v>
       </c>
       <c r="F10">
-        <v>0.07000000000000001</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GeNg</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>0.06</v>
-      </c>
-      <c r="D11">
-        <v>0.08</v>
-      </c>
-      <c r="E11">
-        <v>0.05</v>
-      </c>
-      <c r="F11">
-        <v>0.04</v>
+          <t>ZaHa</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AuKa</t>
+          <t>NkPl</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E12">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="F12">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NgFl</t>
+          <t>GeNg</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="D13">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="E13">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="F13">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>JaPa</t>
+          <t>AuKa</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="D14">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E14">
+        <v>0.18</v>
+      </c>
+      <c r="F14">
         <v>0.13</v>
-      </c>
-      <c r="F14">
-        <v>0.83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AnPa</t>
+          <t>NgFl</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="D15">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="E15">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="F15">
-        <v>0.22</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VaDe</t>
+          <t>JaPa</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="D16">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E16">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F16">
-        <v>0.13</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JeAx</t>
+          <t>AnPa</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.16</v>
+        <v>0.34</v>
       </c>
       <c r="D17">
-        <v>0.14</v>
+        <v>0.31</v>
       </c>
       <c r="E17">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F17">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PeMa</t>
+          <t>VaDe</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="D18">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="E18">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F18">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JaEd</t>
+          <t>MeTh</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="D19">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="E19">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="F19">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DuJu</t>
+          <t>VaTh</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="D20">
         <v>0.15</v>
       </c>
       <c r="E20">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F20">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>YaAdr</t>
+          <t>JeAx</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="D21">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E21">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F21">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SyGe</t>
+          <t>PeMa</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="D22">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="E22">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="F22">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MaJe</t>
+          <t>JaEd</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="D23">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="E23">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F23">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AnSo</t>
+          <t>KuOn</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.69</v>
+        <v>0.55</v>
       </c>
       <c r="D24">
-        <v>0.07000000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="E24">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="F24">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ArGo</t>
+          <t>DuJu</t>
         </is>
       </c>
       <c r="C25">
+        <v>0.22</v>
+      </c>
+      <c r="D25">
+        <v>0.15</v>
+      </c>
+      <c r="E25">
+        <v>0.14</v>
+      </c>
+      <c r="F25">
         <v>0.11</v>
-      </c>
-      <c r="D25">
-        <v>0.09</v>
-      </c>
-      <c r="E25">
-        <v>0.12</v>
-      </c>
-      <c r="F25">
-        <v>0.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mami</t>
+          <t>YaAdr</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D26">
-        <v>0.55</v>
+        <v>0.12</v>
       </c>
       <c r="E26">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="F26">
-        <v>0.31</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Vaga</t>
+          <t>SyGe</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="D27">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="E27">
-        <v>0.43</v>
+        <v>0.18</v>
       </c>
       <c r="F27">
-        <v>0.71</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Piol</t>
+          <t>MaJe</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.41</v>
+        <v>0.06</v>
       </c>
       <c r="D28">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="E28">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="F28">
-        <v>0.65</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fuda</t>
+          <t>AnSo</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.4</v>
+        <v>0.69</v>
       </c>
       <c r="D29">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E29">
+        <v>0.09</v>
+      </c>
+      <c r="F29">
         <v>0.3</v>
-      </c>
-      <c r="F29">
-        <v>0.29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Brse</t>
-        </is>
+          <t>ArGo</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>0.11</v>
+      </c>
+      <c r="D30">
+        <v>0.09</v>
+      </c>
+      <c r="E30">
+        <v>0.12</v>
+      </c>
+      <c r="F30">
+        <v>0.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>JoAm</t>
-        </is>
+          <t>YoCa</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <v>0.58</v>
+      </c>
+      <c r="E31">
+        <v>0.92</v>
+      </c>
+      <c r="F31">
+        <v>0.82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bomo</t>
+          <t>Mami</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="D32">
-        <v>0.23</v>
+        <v>0.55</v>
       </c>
       <c r="E32">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="F32">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Rase</t>
+          <t>RiSt</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="D33">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="E33">
-        <v>0.59</v>
+        <v>0.16</v>
       </c>
       <c r="F33">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Poma</t>
+          <t>Vaga</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.08</v>
+        <v>0.9</v>
       </c>
       <c r="D34">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="E34">
-        <v>0.09</v>
+        <v>0.43</v>
       </c>
       <c r="F34">
-        <v>0.05</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Yaer</t>
+          <t>Piol</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="D35">
+        <v>0.41</v>
+      </c>
+      <c r="E35">
         <v>0.31</v>
       </c>
-      <c r="E35">
-        <v>0.51</v>
-      </c>
       <c r="F35">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Quwa</t>
+          <t>Fuda</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="D36">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="E36">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="F36">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ElYo</t>
-        </is>
-      </c>
-      <c r="C37">
-        <v>0.22</v>
-      </c>
-      <c r="D37">
-        <v>0.23</v>
-      </c>
-      <c r="E37">
-        <v>0.19</v>
-      </c>
-      <c r="F37">
-        <v>0.14</v>
+          <t>Brse</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Coch</t>
-        </is>
-      </c>
-      <c r="C38">
-        <v>0.37</v>
-      </c>
-      <c r="D38">
-        <v>0.38</v>
-      </c>
-      <c r="E38">
-        <v>0.41</v>
-      </c>
-      <c r="F38">
-        <v>0.24</v>
+          <t>JoAm</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Vino</t>
+          <t>Bomo</t>
         </is>
       </c>
       <c r="C39">
+        <v>0.17</v>
+      </c>
+      <c r="D39">
         <v>0.23</v>
       </c>
-      <c r="D39">
-        <v>0.16</v>
-      </c>
       <c r="E39">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F39">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bebl</t>
+          <t>Jeva</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="D40">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="E40">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="F40">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JosEst</t>
+          <t>Rase</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.1</v>
+        <v>0.38</v>
       </c>
       <c r="D41">
-        <v>0.14</v>
+        <v>0.31</v>
       </c>
       <c r="E41">
-        <v>0.2</v>
+        <v>0.59</v>
       </c>
       <c r="F41">
-        <v>1.63</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HaJo</t>
+          <t>Poma</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="D42">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="E42">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="F42">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HoYa</t>
+          <t>Yiha</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.54</v>
+        <v>0.12</v>
       </c>
       <c r="D43">
-        <v>0.34</v>
+        <v>0.14</v>
       </c>
       <c r="E43">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="F43">
-        <v>0.18</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MaNa</t>
+          <t>Yaer</t>
         </is>
       </c>
       <c r="C44">
+        <v>0.33</v>
+      </c>
+      <c r="D44">
         <v>0.31</v>
       </c>
-      <c r="D44">
-        <v>0.22</v>
-      </c>
       <c r="E44">
-        <v>0.17</v>
+        <v>0.51</v>
       </c>
       <c r="F44">
-        <v>0.12</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DeGa</t>
+          <t>Quwa</t>
         </is>
       </c>
       <c r="C45">
+        <v>0.19</v>
+      </c>
+      <c r="D45">
+        <v>0.15</v>
+      </c>
+      <c r="E45">
         <v>0.12</v>
       </c>
-      <c r="D45">
-        <v>0.11</v>
-      </c>
-      <c r="E45">
-        <v>0.11</v>
-      </c>
       <c r="F45">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HuLa</t>
+          <t>ElYo</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="D46">
-        <v>0.04</v>
+        <v>0.23</v>
       </c>
       <c r="E46">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MaGo</t>
+          <t>HaAbd</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="D47">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="E47">
-        <v>0.11</v>
+        <v>0.36</v>
       </c>
       <c r="F47">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DoIm</t>
+          <t>Coch</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.08</v>
+        <v>0.37</v>
       </c>
       <c r="D48">
-        <v>0.07000000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="E48">
-        <v>0.05</v>
+        <v>0.41</v>
       </c>
       <c r="F48">
-        <v>0.03</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HaVa</t>
+          <t>Vino</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="D49">
+        <v>0.16</v>
+      </c>
+      <c r="E49">
         <v>0.2</v>
       </c>
-      <c r="E49">
-        <v>0.24</v>
-      </c>
       <c r="F49">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>JoRo</t>
+          <t>Bebl</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="D50">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="E50">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="F50">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MoKi</t>
+          <t>JosEst</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="D51">
-        <v>0.41</v>
+        <v>0.14</v>
       </c>
       <c r="E51">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="F51">
-        <v>0.34</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DeKo</t>
+          <t>HaJo</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="D52">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="E52">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="F52">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DeTi</t>
+          <t>HoYa</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
       <c r="D53">
+        <v>0.34</v>
+      </c>
+      <c r="E53">
         <v>0.31</v>
       </c>
-      <c r="E53">
-        <v>0.17</v>
-      </c>
       <c r="F53">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SaSy</t>
+          <t>GeMa</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D54">
-        <v>0.31</v>
+        <v>0.1</v>
       </c>
       <c r="E54">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="F54">
-        <v>0.23</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>KaMo</t>
+          <t>MaNa</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="D55">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="E55">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="F55">
-        <v>0.64</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HagAnd</t>
+          <t>DeGa</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.73</v>
+        <v>0.12</v>
       </c>
       <c r="D56">
-        <v>0.54</v>
+        <v>0.11</v>
       </c>
       <c r="E56">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="F56">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NgoRoy</t>
+          <t>HuLa</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.64</v>
+        <v>0.15</v>
       </c>
       <c r="D57">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="E57">
-        <v>0.35</v>
+        <v>0.08</v>
       </c>
       <c r="F57">
-        <v>0.62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MonChri</t>
-        </is>
+          <t>MaGo</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>0.16</v>
+      </c>
+      <c r="D58">
+        <v>0.15</v>
       </c>
       <c r="E58">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="F58">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LetLuc</t>
+          <t>OzMo</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.46</v>
+        <v>0.16</v>
       </c>
       <c r="D59">
-        <v>1.17</v>
+        <v>0.2</v>
       </c>
       <c r="E59">
-        <v>0.99</v>
+        <v>0.25</v>
       </c>
       <c r="F59">
-        <v>0.5600000000000001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>KalDim</t>
+          <t>DoIm</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
       <c r="D60">
-        <v>0.28</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E60">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="F60">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>HabCha</t>
-        </is>
+          <t>HaVa</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>0.32</v>
+      </c>
+      <c r="D61">
+        <v>0.2</v>
+      </c>
+      <c r="E61">
+        <v>0.24</v>
+      </c>
+      <c r="F61">
+        <v>0.11</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BoucIli</t>
-        </is>
+          <t>JoRo</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>0.18</v>
+      </c>
+      <c r="D62">
+        <v>0.22</v>
+      </c>
+      <c r="E62">
+        <v>0.2</v>
+      </c>
+      <c r="F62">
+        <v>0.19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DaiAnt</t>
-        </is>
+          <t>MaBi</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>0.12</v>
+      </c>
+      <c r="D63">
+        <v>0.08</v>
+      </c>
+      <c r="E63">
+        <v>0.11</v>
+      </c>
+      <c r="F63">
+        <v>0.12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LemAnd</t>
+          <t>MoKi</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.09</v>
+        <v>0.41</v>
       </c>
       <c r="D64">
-        <v>0.08</v>
+        <v>0.41</v>
       </c>
       <c r="E64">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="F64">
-        <v>0.04</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FlSm</t>
+          <t>DeKo</t>
         </is>
       </c>
       <c r="C65">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="D65">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="E65">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="F65">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRENI</t>
-        </is>
+          <t>MoDa</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>0.21</v>
+      </c>
+      <c r="D66">
+        <v>0.3</v>
+      </c>
+      <c r="E66">
+        <v>0.25</v>
+      </c>
+      <c r="F66">
+        <v>0.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIALI</t>
-        </is>
+          <t>Nanu</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>0.03</v>
+      </c>
+      <c r="D67">
+        <v>0.05</v>
+      </c>
+      <c r="E67">
+        <v>0.02</v>
+      </c>
+      <c r="F67">
+        <v>0.03</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>COMAX</t>
-        </is>
+          <t>DeTi</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>0.38</v>
+      </c>
+      <c r="D68">
+        <v>0.31</v>
+      </c>
+      <c r="E68">
+        <v>0.17</v>
+      </c>
+      <c r="F68">
+        <v>0.11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ASKEV</t>
-        </is>
+          <t>NyEd</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>0.28</v>
+      </c>
+      <c r="D69">
+        <v>0.4</v>
+      </c>
+      <c r="E69">
+        <v>0.23</v>
+      </c>
+      <c r="F69">
+        <v>0.22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CHLO</t>
-        </is>
+          <t>SaSy</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>0.3</v>
+      </c>
+      <c r="D70">
+        <v>0.31</v>
+      </c>
+      <c r="E70">
+        <v>0.24</v>
+      </c>
+      <c r="F70">
+        <v>0.23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>HABEN</t>
-        </is>
+          <t>KaMo</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>0.25</v>
+      </c>
+      <c r="D71">
+        <v>0.25</v>
+      </c>
+      <c r="E71">
+        <v>0.36</v>
+      </c>
+      <c r="F71">
+        <v>0.64</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DIEAL</t>
-        </is>
+          <t>BukJma</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>0.25</v>
+      </c>
+      <c r="D72">
+        <v>0.18</v>
+      </c>
+      <c r="E72">
+        <v>0.17</v>
+      </c>
+      <c r="F72">
+        <v>0.17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SHEAY</t>
-        </is>
+          <t>HagAnd</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>0.73</v>
+      </c>
+      <c r="D73">
+        <v>0.54</v>
+      </c>
+      <c r="E73">
+        <v>0.28</v>
+      </c>
+      <c r="F73">
+        <v>0.3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AbDo</t>
+          <t>NgoRoy</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.11</v>
+        <v>0.64</v>
       </c>
       <c r="D74">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E74">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="F74">
-        <v>0.08</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ElYa</t>
-        </is>
-      </c>
-      <c r="C75">
-        <v>0.31</v>
-      </c>
-      <c r="D75">
+          <t>MonChri</t>
+        </is>
+      </c>
+      <c r="E75">
         <v>0.23</v>
       </c>
-      <c r="E75">
-        <v>0.18</v>
-      </c>
       <c r="F75">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>XaRi</t>
+          <t>LetLuc</t>
         </is>
       </c>
       <c r="C76">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="D76">
-        <v>0.07000000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="E76">
-        <v>0.06</v>
+        <v>0.99</v>
       </c>
       <c r="F76">
-        <v>0.05</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NiLe</t>
+          <t>KalDim</t>
         </is>
       </c>
       <c r="C77">
+        <v>0.34</v>
+      </c>
+      <c r="D77">
         <v>0.28</v>
       </c>
-      <c r="D77">
-        <v>0.22</v>
-      </c>
       <c r="E77">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="F77">
         <v>0.1</v>
@@ -1889,793 +2021,1317 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LaYa</t>
-        </is>
-      </c>
-      <c r="C78">
-        <v>0.18</v>
-      </c>
-      <c r="D78">
-        <v>0.2</v>
-      </c>
-      <c r="E78">
-        <v>0.14</v>
-      </c>
-      <c r="F78">
-        <v>0.08</v>
+          <t>HabCha</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JOSZEN</t>
-        </is>
-      </c>
-      <c r="C79">
-        <v>0.12</v>
-      </c>
-      <c r="D79">
-        <v>0.06</v>
-      </c>
-      <c r="E79">
-        <v>0.08</v>
-      </c>
-      <c r="F79">
-        <v>0.03</v>
+          <t>BoucIli</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>AliTem</t>
-        </is>
-      </c>
-      <c r="C80">
-        <v>0.28</v>
-      </c>
-      <c r="D80">
-        <v>0.27</v>
-      </c>
-      <c r="E80">
-        <v>0.38</v>
-      </c>
-      <c r="F80">
-        <v>0.27</v>
+          <t>DaiAnt</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>kether</t>
+          <t>LemAnd</t>
         </is>
       </c>
       <c r="C81">
-        <v>0.28</v>
+        <v>0.09</v>
       </c>
       <c r="D81">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E81">
-        <v>1.11</v>
+        <v>0.06</v>
       </c>
       <c r="F81">
-        <v>0.49</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>KamCed</t>
+          <t>FlSm</t>
         </is>
       </c>
       <c r="C82">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="D82">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="E82">
         <v>0.23</v>
       </c>
       <c r="F82">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ChPe</t>
-        </is>
-      </c>
-      <c r="C83">
-        <v>0.15</v>
-      </c>
-      <c r="D83">
-        <v>0.13</v>
-      </c>
-      <c r="E83">
-        <v>0.19</v>
-      </c>
-      <c r="F83">
-        <v>0.09</v>
+          <t>TRENI</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GoJu</t>
+          <t>BIALI</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>StMi</t>
+          <t>COMAX</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SeFa</t>
+          <t>ASKEV</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BIDA</t>
+          <t>CHLO</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DecBen</t>
+          <t>HABEN</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>LFK</t>
+          <t>DIEAL</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GUDW</t>
+          <t>SHEAY</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ANQU</t>
-        </is>
+          <t>AbDo</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>0.11</v>
+      </c>
+      <c r="D91">
+        <v>0.1</v>
+      </c>
+      <c r="E91">
+        <v>0.12</v>
+      </c>
+      <c r="F91">
+        <v>0.08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HETH</t>
-        </is>
+          <t>ElYa</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>0.31</v>
+      </c>
+      <c r="D92">
+        <v>0.23</v>
+      </c>
+      <c r="E92">
+        <v>0.18</v>
+      </c>
+      <c r="F92">
+        <v>0.1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NORE</t>
-        </is>
+          <t>XaRi</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>0.05</v>
+      </c>
+      <c r="D93">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E93">
+        <v>0.06</v>
+      </c>
+      <c r="F93">
+        <v>0.05</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ANPI</t>
-        </is>
+          <t>NiLe</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>0.28</v>
+      </c>
+      <c r="D94">
+        <v>0.22</v>
+      </c>
+      <c r="E94">
+        <v>0.08</v>
+      </c>
+      <c r="F94">
+        <v>0.1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ARWE</t>
-        </is>
+          <t>LaYa</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>0.18</v>
+      </c>
+      <c r="D95">
+        <v>0.2</v>
+      </c>
+      <c r="E95">
+        <v>0.14</v>
+      </c>
+      <c r="F95">
+        <v>0.08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>EMHO</t>
+          <t>Makedg</t>
         </is>
       </c>
       <c r="C96">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D96">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="E96">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="F96">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>LOGO</t>
-        </is>
+          <t>Melgant</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D97">
+        <v>0.15</v>
+      </c>
+      <c r="E97">
+        <v>0.09</v>
+      </c>
+      <c r="F97">
+        <v>0.04</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RIVA</t>
+          <t>Boubil</t>
         </is>
       </c>
       <c r="C98">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="D98">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="F98">
-        <v>0.018</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>OLHA</t>
-        </is>
+          <t>JOSZEN</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>0.12</v>
+      </c>
+      <c r="D99">
+        <v>0.06</v>
+      </c>
+      <c r="E99">
+        <v>0.08</v>
+      </c>
+      <c r="F99">
+        <v>0.03</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FAVE</t>
-        </is>
-      </c>
-      <c r="C100">
-        <v>0.21</v>
-      </c>
-      <c r="D100">
-        <v>0.16</v>
-      </c>
-      <c r="E100">
-        <v>0.12</v>
-      </c>
-      <c r="F100">
-        <v>0.13</v>
+          <t>OlBo</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ELSO</t>
-        </is>
+          <t>LOCOUA</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>0.24</v>
+      </c>
+      <c r="D101">
+        <v>0.19</v>
+      </c>
+      <c r="E101">
+        <v>0.17</v>
+      </c>
+      <c r="F101">
+        <v>0.09</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>JELE</t>
-        </is>
+          <t>CaIb</t>
+        </is>
+      </c>
+      <c r="F102">
+        <v>0.28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MACO</t>
-        </is>
+          <t>AliTem</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>0.28</v>
+      </c>
+      <c r="D103">
+        <v>0.27</v>
+      </c>
+      <c r="E103">
+        <v>0.38</v>
+      </c>
+      <c r="F103">
+        <v>0.27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GAJO</t>
+          <t>kether</t>
         </is>
       </c>
       <c r="C104">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
       <c r="D104">
-        <v>0.09</v>
+        <v>0.84</v>
       </c>
       <c r="E104">
-        <v>0.08</v>
+        <v>1.11</v>
       </c>
       <c r="F104">
-        <v>0.07000000000000001</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BOLE</t>
-        </is>
+          <t>LecJer</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>0.08</v>
+      </c>
+      <c r="D105">
+        <v>0.16</v>
+      </c>
+      <c r="E105">
+        <v>0.25</v>
+      </c>
+      <c r="F105">
+        <v>0.12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>LOIBAU</t>
-        </is>
+          <t>KamCed</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>0.12</v>
+      </c>
+      <c r="D106">
+        <v>0.17</v>
+      </c>
+      <c r="E106">
+        <v>0.23</v>
+      </c>
+      <c r="F106">
+        <v>0.18</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BODNIC</t>
+          <t>ChPe</t>
         </is>
       </c>
       <c r="C107">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="D107">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="E107">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="F107">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MISI</t>
-        </is>
-      </c>
-      <c r="C108">
-        <v>0.17</v>
-      </c>
-      <c r="D108">
-        <v>0.09</v>
-      </c>
-      <c r="E108">
-        <v>0.08</v>
-      </c>
-      <c r="F108">
-        <v>0.06</v>
+          <t>GoJu</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CHBUS</t>
-        </is>
-      </c>
-      <c r="C109">
-        <v>0.18</v>
-      </c>
-      <c r="D109">
-        <v>0.15</v>
-      </c>
-      <c r="E109">
-        <v>0.13</v>
-      </c>
-      <c r="F109">
-        <v>0.15</v>
+          <t>StMi</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Heyphi</t>
-        </is>
-      </c>
-      <c r="C110">
-        <v>0.11</v>
-      </c>
-      <c r="D110">
-        <v>0.15</v>
-      </c>
-      <c r="E110">
-        <v>0.09</v>
-      </c>
-      <c r="F110">
-        <v>0.05</v>
+          <t>SeFa</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CORMI</t>
-        </is>
-      </c>
-      <c r="C111">
-        <v>0.12</v>
-      </c>
-      <c r="D111">
-        <v>0.11</v>
-      </c>
-      <c r="E111">
-        <v>0.25</v>
-      </c>
-      <c r="F111">
-        <v>0.08</v>
+          <t>BIDA</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>JERO</t>
+          <t>MAMU</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PIDAN</t>
+          <t>SKHY</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>JBPI</t>
+          <t>DecBen</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ANPIS</t>
+          <t>LFK</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BONJO</t>
+          <t>GUDW</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>RATRA</t>
+          <t>ANQU</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ratseb</t>
-        </is>
-      </c>
-      <c r="C118">
-        <v>0.24</v>
-      </c>
-      <c r="D118">
-        <v>0.25</v>
-      </c>
-      <c r="E118">
-        <v>0.22</v>
-      </c>
-      <c r="F118">
-        <v>0.16</v>
+          <t>HETH</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>JCVAN</t>
-        </is>
-      </c>
-      <c r="C119">
-        <v>0.2</v>
-      </c>
-      <c r="D119">
-        <v>0.28</v>
-      </c>
-      <c r="E119">
-        <v>0.19</v>
-      </c>
-      <c r="F119">
-        <v>0.09</v>
+          <t>NORE</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RENPI</t>
-        </is>
-      </c>
-      <c r="C120">
-        <v>0.47</v>
-      </c>
-      <c r="D120">
-        <v>0.22</v>
-      </c>
-      <c r="E120">
-        <v>0.23</v>
-      </c>
-      <c r="F120">
-        <v>0.16</v>
+          <t>SIDE</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>VANFRA</t>
-        </is>
-      </c>
-      <c r="C121">
-        <v>0.29</v>
-      </c>
-      <c r="D121">
-        <v>0.26</v>
-      </c>
-      <c r="E121">
-        <v>0.27</v>
-      </c>
-      <c r="F121">
-        <v>0.18</v>
+          <t>ANPI</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>JACVAN</t>
-        </is>
-      </c>
-      <c r="C122">
-        <v>0.5</v>
-      </c>
-      <c r="D122">
-        <v>0.47</v>
-      </c>
-      <c r="E122">
-        <v>0.52</v>
-      </c>
-      <c r="F122">
-        <v>0.27</v>
+          <t>ARWE</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FLOND</t>
-        </is>
+          <t>EMHO</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>0.19</v>
+      </c>
+      <c r="D123">
+        <v>0.15</v>
+      </c>
+      <c r="E123">
+        <v>0.17</v>
+      </c>
+      <c r="F123">
+        <v>0.25</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DinPhu</t>
-        </is>
-      </c>
-      <c r="C124">
-        <v>0.11</v>
-      </c>
-      <c r="D124">
-        <v>0.1</v>
-      </c>
-      <c r="E124">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F124">
-        <v>0.18</v>
+          <t>LOGO</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>LUMAR</t>
-        </is>
+          <t>RIVA</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>0.14</v>
+      </c>
+      <c r="D125">
+        <v>0.1</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <v>0.018</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DaMo</t>
+          <t>OLHA</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GJJO</t>
-        </is>
+          <t>FAVE</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>0.21</v>
+      </c>
+      <c r="D127">
+        <v>0.16</v>
+      </c>
+      <c r="E127">
+        <v>0.12</v>
+      </c>
+      <c r="F127">
+        <v>0.13</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MAGEN</t>
+          <t>ELSO</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>POVI</t>
+          <t>JELE</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FRMA</t>
+          <t>MACO</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
+        <v>134</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>GAJO</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>0.1</v>
+      </c>
+      <c r="D131">
+        <v>0.09</v>
+      </c>
+      <c r="E131">
+        <v>0.08</v>
+      </c>
+      <c r="F131">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>135</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>BOLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>136</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>LOIBAU</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>137</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>BODNIC</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>0.24</v>
+      </c>
+      <c r="D134">
+        <v>0.16</v>
+      </c>
+      <c r="E134">
+        <v>0.16</v>
+      </c>
+      <c r="F134">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>138</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>MISI</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>0.17</v>
+      </c>
+      <c r="D135">
+        <v>0.09</v>
+      </c>
+      <c r="E135">
+        <v>0.08</v>
+      </c>
+      <c r="F135">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>139</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>CHBUS</t>
+        </is>
+      </c>
+      <c r="C136">
+        <v>0.18</v>
+      </c>
+      <c r="D136">
+        <v>0.15</v>
+      </c>
+      <c r="E136">
+        <v>0.13</v>
+      </c>
+      <c r="F136">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>140</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Heyphi</t>
+        </is>
+      </c>
+      <c r="C137">
+        <v>0.11</v>
+      </c>
+      <c r="D137">
+        <v>0.15</v>
+      </c>
+      <c r="E137">
+        <v>0.09</v>
+      </c>
+      <c r="F137">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>141</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>CORMI</t>
+        </is>
+      </c>
+      <c r="C138">
+        <v>0.12</v>
+      </c>
+      <c r="D138">
+        <v>0.11</v>
+      </c>
+      <c r="E138">
+        <v>0.25</v>
+      </c>
+      <c r="F138">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>142</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Albfre</t>
+        </is>
+      </c>
+      <c r="C139">
+        <v>0.1</v>
+      </c>
+      <c r="D139">
+        <v>0.11</v>
+      </c>
+      <c r="E139">
+        <v>0.12</v>
+      </c>
+      <c r="F139">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>143</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>JERO</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>144</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>PIDAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>145</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>JBPI</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>147</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ANPIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>148</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ANGBEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>149</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>MABI</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>150</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>BONJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>151</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>RATRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>152</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Ratseb</t>
+        </is>
+      </c>
+      <c r="C149">
+        <v>0.24</v>
+      </c>
+      <c r="D149">
+        <v>0.25</v>
+      </c>
+      <c r="E149">
+        <v>0.22</v>
+      </c>
+      <c r="F149">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>153</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>GISGEO</t>
+        </is>
+      </c>
+      <c r="C150">
+        <v>0.38</v>
+      </c>
+      <c r="D150">
+        <v>0.41</v>
+      </c>
+      <c r="E150">
+        <v>0.36</v>
+      </c>
+      <c r="F150">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>154</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>JCVAN</t>
+        </is>
+      </c>
+      <c r="C151">
+        <v>0.2</v>
+      </c>
+      <c r="D151">
+        <v>0.28</v>
+      </c>
+      <c r="E151">
+        <v>0.19</v>
+      </c>
+      <c r="F151">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>155</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>RENPI</t>
+        </is>
+      </c>
+      <c r="C152">
+        <v>0.47</v>
+      </c>
+      <c r="D152">
+        <v>0.22</v>
+      </c>
+      <c r="E152">
+        <v>0.23</v>
+      </c>
+      <c r="F152">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>156</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>VANFRA</t>
+        </is>
+      </c>
+      <c r="C153">
+        <v>0.29</v>
+      </c>
+      <c r="D153">
+        <v>0.26</v>
+      </c>
+      <c r="E153">
+        <v>0.27</v>
+      </c>
+      <c r="F153">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>157</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>JuTin</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>160</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>JACVAN</t>
+        </is>
+      </c>
+      <c r="C155">
+        <v>0.5</v>
+      </c>
+      <c r="D155">
+        <v>0.47</v>
+      </c>
+      <c r="E155">
+        <v>0.52</v>
+      </c>
+      <c r="F155">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>181</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>FLOND</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>182</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>SIDM</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>183</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>BENI</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>184</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>DinPhu</t>
+        </is>
+      </c>
+      <c r="C159">
+        <v>0.11</v>
+      </c>
+      <c r="D159">
+        <v>0.1</v>
+      </c>
+      <c r="E159">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F159">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>185</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>LUMAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>186</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>DaMo</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>187</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>GJJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>188</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>MAGEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>189</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>POVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>190</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>FRMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>191</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>TBODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
         <v>192</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>GAUBRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>193</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ERMOO</t>
         </is>
       </c>
     </row>

--- a/Output/Cortisol.xlsx
+++ b/Output/Cortisol.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,1563 +457,1431 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JeVe</t>
+          <t>YaMe</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
         <v>0.13</v>
       </c>
-      <c r="E5">
-        <v>0.31</v>
-      </c>
       <c r="F5">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>YaMe</t>
+          <t>GbEl</t>
         </is>
       </c>
       <c r="C6">
+        <v>0.13</v>
+      </c>
+      <c r="D6">
+        <v>0.11</v>
+      </c>
+      <c r="E6">
+        <v>0.09</v>
+      </c>
+      <c r="F6">
         <v>0.06</v>
-      </c>
-      <c r="D6">
-        <v>0.1</v>
-      </c>
-      <c r="E6">
-        <v>0.13</v>
-      </c>
-      <c r="F6">
-        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GbEl</t>
+          <t>VoMa</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="D7">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E7">
         <v>0.09</v>
       </c>
       <c r="F7">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MoTh</t>
+          <t>SoKa</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="D8">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0.09</v>
+        <v>0.41</v>
       </c>
       <c r="F8">
-        <v>0.06</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VoMa</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>0.08</v>
-      </c>
-      <c r="D9">
-        <v>0.09</v>
-      </c>
-      <c r="E9">
-        <v>0.09</v>
-      </c>
-      <c r="F9">
-        <v>0.07000000000000001</v>
+          <t>ZaHa</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SoKa</t>
+          <t>NkPl</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="E10">
-        <v>0.41</v>
+        <v>0.11</v>
       </c>
       <c r="F10">
-        <v>0.31</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ZaHa</t>
-        </is>
+          <t>GeNg</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>0.06</v>
+      </c>
+      <c r="D11">
+        <v>0.08</v>
+      </c>
+      <c r="E11">
+        <v>0.05</v>
+      </c>
+      <c r="F11">
+        <v>0.04</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NkPl</t>
+          <t>AuKa</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D12">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E12">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="F12">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GeNg</t>
+          <t>NgFl</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="E13">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="F13">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AuKa</t>
+          <t>JaPa</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="D14">
+        <v>0.11</v>
+      </c>
+      <c r="E14">
         <v>0.13</v>
       </c>
-      <c r="E14">
-        <v>0.18</v>
-      </c>
       <c r="F14">
-        <v>0.13</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NgFl</t>
+          <t>AnPa</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="D15">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="E15">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="F15">
-        <v>0.39</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>JaPa</t>
+          <t>VaDe</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="D16">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E16">
+        <v>0.14</v>
+      </c>
+      <c r="F16">
         <v>0.13</v>
-      </c>
-      <c r="F16">
-        <v>0.83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AnPa</t>
+          <t>JeAx</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="D17">
-        <v>0.31</v>
+        <v>0.14</v>
       </c>
       <c r="E17">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F17">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VaDe</t>
+          <t>PeMa</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="D18">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="E18">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F18">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MeTh</t>
+          <t>JaEd</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="D19">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="E19">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F19">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VaTh</t>
+          <t>DuJu</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="D20">
         <v>0.15</v>
       </c>
       <c r="E20">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F20">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JeAx</t>
+          <t>YaAdr</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="D21">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="E21">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F21">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PeMa</t>
+          <t>SyGe</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="D22">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="E22">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="F22">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>JaEd</t>
+          <t>MaJe</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="D23">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="E23">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F23">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KuOn</t>
+          <t>AnSo</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.55</v>
+        <v>0.69</v>
       </c>
       <c r="D24">
-        <v>0.35</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E24">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="F24">
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DuJu</t>
+          <t>ArGo</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="D25">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="E25">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F25">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>YaAdr</t>
+          <t>Mami</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D26">
-        <v>0.12</v>
+        <v>0.55</v>
       </c>
       <c r="E26">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="F26">
-        <v>0.11</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SyGe</t>
+          <t>Vaga</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="D27">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="E27">
-        <v>0.18</v>
+        <v>0.43</v>
       </c>
       <c r="F27">
-        <v>0.2</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MaJe</t>
+          <t>Piol</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.06</v>
+        <v>0.41</v>
       </c>
       <c r="D28">
-        <v>0.1</v>
+        <v>0.41</v>
       </c>
       <c r="E28">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="F28">
-        <v>0.24</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AnSo</t>
+          <t>Fuda</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.69</v>
+        <v>0.4</v>
       </c>
       <c r="D29">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="E29">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="F29">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ArGo</t>
-        </is>
-      </c>
-      <c r="C30">
-        <v>0.11</v>
-      </c>
-      <c r="D30">
-        <v>0.09</v>
-      </c>
-      <c r="E30">
-        <v>0.12</v>
-      </c>
-      <c r="F30">
-        <v>0.1</v>
+          <t>Brse</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>YoCa</t>
-        </is>
-      </c>
-      <c r="C31">
-        <v>0.5</v>
-      </c>
-      <c r="D31">
-        <v>0.58</v>
-      </c>
-      <c r="E31">
-        <v>0.92</v>
-      </c>
-      <c r="F31">
-        <v>0.82</v>
+          <t>JoAm</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mami</t>
+          <t>Bomo</t>
         </is>
       </c>
       <c r="C32">
+        <v>0.17</v>
+      </c>
+      <c r="D32">
+        <v>0.23</v>
+      </c>
+      <c r="E32">
         <v>0.19</v>
       </c>
-      <c r="D32">
-        <v>0.55</v>
-      </c>
-      <c r="E32">
-        <v>0.33</v>
-      </c>
       <c r="F32">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RiSt</t>
+          <t>Rase</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="D33">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="E33">
-        <v>0.16</v>
+        <v>0.59</v>
       </c>
       <c r="F33">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Vaga</t>
+          <t>Poma</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.9</v>
+        <v>0.08</v>
       </c>
       <c r="D34">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="E34">
-        <v>0.43</v>
+        <v>0.09</v>
       </c>
       <c r="F34">
-        <v>0.71</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Piol</t>
+          <t>Yaer</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="D35">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
       <c r="E35">
-        <v>0.31</v>
+        <v>0.51</v>
       </c>
       <c r="F35">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fuda</t>
+          <t>Quwa</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="D36">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="E36">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="F36">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Brse</t>
-        </is>
+          <t>ElYo</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>0.22</v>
+      </c>
+      <c r="D37">
+        <v>0.23</v>
+      </c>
+      <c r="E37">
+        <v>0.19</v>
+      </c>
+      <c r="F37">
+        <v>0.14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>JoAm</t>
-        </is>
+          <t>Coch</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>0.37</v>
+      </c>
+      <c r="D38">
+        <v>0.38</v>
+      </c>
+      <c r="E38">
+        <v>0.41</v>
+      </c>
+      <c r="F38">
+        <v>0.24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bomo</t>
+          <t>Vino</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="D39">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="E39">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F39">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Jeva</t>
+          <t>Bebl</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="D40">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="E40">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="F40">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rase</t>
+          <t>JosEst</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="D41">
-        <v>0.31</v>
+        <v>0.14</v>
       </c>
       <c r="E41">
-        <v>0.59</v>
+        <v>0.2</v>
       </c>
       <c r="F41">
-        <v>0.31</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Poma</t>
+          <t>HaJo</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="D42">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="E42">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="F42">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Yiha</t>
+          <t>HoYa</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.12</v>
+        <v>0.54</v>
       </c>
       <c r="D43">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="E43">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="F43">
-        <v>0.7</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Yaer</t>
+          <t>MaNa</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="D44">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="E44">
-        <v>0.51</v>
+        <v>0.17</v>
       </c>
       <c r="F44">
-        <v>0.71</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Quwa</t>
+          <t>DeGa</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="D45">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="E45">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F45">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ElYo</t>
+          <t>HuLa</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="D46">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
       <c r="E46">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="F46">
-        <v>0.14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HaAbd</t>
+          <t>MaGo</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="D47">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="E47">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
       <c r="F47">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Coch</t>
+          <t>DoIm</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.37</v>
+        <v>0.08</v>
       </c>
       <c r="D48">
-        <v>0.38</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E48">
-        <v>0.41</v>
+        <v>0.05</v>
       </c>
       <c r="F48">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Vino</t>
+          <t>HaVa</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="D49">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="E49">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="F49">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Bebl</t>
+          <t>JoRo</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="D50">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="E50">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="F50">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>JosEst</t>
+          <t>MoKi</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.1</v>
+        <v>0.41</v>
       </c>
       <c r="D51">
-        <v>0.14</v>
+        <v>0.41</v>
       </c>
       <c r="E51">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="F51">
-        <v>1.63</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HaJo</t>
+          <t>DeKo</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="D52">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="E52">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F52">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HoYa</t>
+          <t>DeTi</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="D53">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="E53">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="F53">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GeMa</t>
+          <t>SaSy</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D54">
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
       <c r="E54">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="F54">
-        <v>0.07000000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MaNa</t>
+          <t>KaMo</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="D55">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="E55">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="F55">
-        <v>0.12</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DeGa</t>
+          <t>HagAnd</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.12</v>
+        <v>0.73</v>
       </c>
       <c r="D56">
-        <v>0.11</v>
+        <v>0.54</v>
       </c>
       <c r="E56">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="F56">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HuLa</t>
+          <t>NgoRoy</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.15</v>
+        <v>0.64</v>
       </c>
       <c r="D57">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="E57">
-        <v>0.08</v>
+        <v>0.35</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MaGo</t>
-        </is>
-      </c>
-      <c r="C58">
+          <t>MonChri</t>
+        </is>
+      </c>
+      <c r="E58">
+        <v>0.23</v>
+      </c>
+      <c r="F58">
         <v>0.16</v>
-      </c>
-      <c r="D58">
-        <v>0.15</v>
-      </c>
-      <c r="E58">
-        <v>0.11</v>
-      </c>
-      <c r="F58">
-        <v>0.04</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>OzMo</t>
+          <t>LetLuc</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.16</v>
+        <v>0.46</v>
       </c>
       <c r="D59">
-        <v>0.2</v>
+        <v>1.17</v>
       </c>
       <c r="E59">
-        <v>0.25</v>
+        <v>0.99</v>
       </c>
       <c r="F59">
-        <v>0.21</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DoIm</t>
+          <t>KalDim</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.08</v>
+        <v>0.34</v>
       </c>
       <c r="D60">
-        <v>0.07000000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="E60">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="F60">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>HaVa</t>
-        </is>
-      </c>
-      <c r="C61">
-        <v>0.32</v>
-      </c>
-      <c r="D61">
-        <v>0.2</v>
-      </c>
-      <c r="E61">
-        <v>0.24</v>
-      </c>
-      <c r="F61">
-        <v>0.11</v>
+          <t>HabCha</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JoRo</t>
-        </is>
-      </c>
-      <c r="C62">
-        <v>0.18</v>
-      </c>
-      <c r="D62">
-        <v>0.22</v>
-      </c>
-      <c r="E62">
-        <v>0.2</v>
-      </c>
-      <c r="F62">
-        <v>0.19</v>
+          <t>BoucIli</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MaBi</t>
-        </is>
-      </c>
-      <c r="C63">
-        <v>0.12</v>
-      </c>
-      <c r="D63">
-        <v>0.08</v>
-      </c>
-      <c r="E63">
-        <v>0.11</v>
-      </c>
-      <c r="F63">
-        <v>0.12</v>
+          <t>DaiAnt</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MoKi</t>
+          <t>LemAnd</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.41</v>
+        <v>0.09</v>
       </c>
       <c r="D64">
-        <v>0.41</v>
+        <v>0.08</v>
       </c>
       <c r="E64">
-        <v>0.33</v>
+        <v>0.06</v>
       </c>
       <c r="F64">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DeKo</t>
+          <t>FlSm</t>
         </is>
       </c>
       <c r="C65">
+        <v>0.3</v>
+      </c>
+      <c r="D65">
         <v>0.26</v>
       </c>
-      <c r="D65">
-        <v>0.11</v>
-      </c>
       <c r="E65">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="F65">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MoDa</t>
-        </is>
-      </c>
-      <c r="C66">
-        <v>0.21</v>
-      </c>
-      <c r="D66">
-        <v>0.3</v>
-      </c>
-      <c r="E66">
-        <v>0.25</v>
-      </c>
-      <c r="F66">
-        <v>0.2</v>
+          <t>TRENI</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Nanu</t>
-        </is>
-      </c>
-      <c r="C67">
-        <v>0.03</v>
-      </c>
-      <c r="D67">
-        <v>0.05</v>
-      </c>
-      <c r="E67">
-        <v>0.02</v>
-      </c>
-      <c r="F67">
-        <v>0.03</v>
+          <t>BIALI</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DeTi</t>
-        </is>
-      </c>
-      <c r="C68">
-        <v>0.38</v>
-      </c>
-      <c r="D68">
-        <v>0.31</v>
-      </c>
-      <c r="E68">
-        <v>0.17</v>
-      </c>
-      <c r="F68">
-        <v>0.11</v>
+          <t>COMAX</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NyEd</t>
-        </is>
-      </c>
-      <c r="C69">
-        <v>0.28</v>
-      </c>
-      <c r="D69">
-        <v>0.4</v>
-      </c>
-      <c r="E69">
-        <v>0.23</v>
-      </c>
-      <c r="F69">
-        <v>0.22</v>
+          <t>ASKEV</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SaSy</t>
-        </is>
-      </c>
-      <c r="C70">
-        <v>0.3</v>
-      </c>
-      <c r="D70">
-        <v>0.31</v>
-      </c>
-      <c r="E70">
-        <v>0.24</v>
-      </c>
-      <c r="F70">
-        <v>0.23</v>
+          <t>CHLO</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>KaMo</t>
-        </is>
-      </c>
-      <c r="C71">
-        <v>0.25</v>
-      </c>
-      <c r="D71">
-        <v>0.25</v>
-      </c>
-      <c r="E71">
-        <v>0.36</v>
-      </c>
-      <c r="F71">
-        <v>0.64</v>
+          <t>HABEN</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BukJma</t>
-        </is>
-      </c>
-      <c r="C72">
-        <v>0.25</v>
-      </c>
-      <c r="D72">
-        <v>0.18</v>
-      </c>
-      <c r="E72">
-        <v>0.17</v>
-      </c>
-      <c r="F72">
-        <v>0.17</v>
+          <t>DIEAL</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>HagAnd</t>
-        </is>
-      </c>
-      <c r="C73">
-        <v>0.73</v>
-      </c>
-      <c r="D73">
-        <v>0.54</v>
-      </c>
-      <c r="E73">
-        <v>0.28</v>
-      </c>
-      <c r="F73">
-        <v>0.3</v>
+          <t>SHEAY</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NgoRoy</t>
+          <t>AbDo</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.64</v>
+        <v>0.11</v>
       </c>
       <c r="D74">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="E74">
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
       <c r="F74">
-        <v>0.62</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MonChri</t>
-        </is>
+          <t>ElYa</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>0.31</v>
+      </c>
+      <c r="D75">
+        <v>0.23</v>
       </c>
       <c r="E75">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="F75">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LetLuc</t>
+          <t>XaRi</t>
         </is>
       </c>
       <c r="C76">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="D76">
-        <v>1.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E76">
-        <v>0.99</v>
+        <v>0.06</v>
       </c>
       <c r="F76">
-        <v>0.5600000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KalDim</t>
+          <t>NiLe</t>
         </is>
       </c>
       <c r="C77">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="D77">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="E77">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="F77">
         <v>0.1</v>
@@ -2021,1317 +1889,793 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HabCha</t>
-        </is>
+          <t>LaYa</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>0.18</v>
+      </c>
+      <c r="D78">
+        <v>0.2</v>
+      </c>
+      <c r="E78">
+        <v>0.14</v>
+      </c>
+      <c r="F78">
+        <v>0.08</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BoucIli</t>
-        </is>
+          <t>JOSZEN</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>0.12</v>
+      </c>
+      <c r="D79">
+        <v>0.06</v>
+      </c>
+      <c r="E79">
+        <v>0.08</v>
+      </c>
+      <c r="F79">
+        <v>0.03</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DaiAnt</t>
-        </is>
+          <t>AliTem</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>0.28</v>
+      </c>
+      <c r="D80">
+        <v>0.27</v>
+      </c>
+      <c r="E80">
+        <v>0.38</v>
+      </c>
+      <c r="F80">
+        <v>0.27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LemAnd</t>
+          <t>kether</t>
         </is>
       </c>
       <c r="C81">
-        <v>0.09</v>
+        <v>0.28</v>
       </c>
       <c r="D81">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="E81">
-        <v>0.06</v>
+        <v>1.11</v>
       </c>
       <c r="F81">
-        <v>0.04</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FlSm</t>
+          <t>KamCed</t>
         </is>
       </c>
       <c r="C82">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="D82">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="E82">
         <v>0.23</v>
       </c>
       <c r="F82">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRENI</t>
-        </is>
+          <t>ChPe</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>0.15</v>
+      </c>
+      <c r="D83">
+        <v>0.13</v>
+      </c>
+      <c r="E83">
+        <v>0.19</v>
+      </c>
+      <c r="F83">
+        <v>0.09</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIALI</t>
+          <t>GoJu</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>COMAX</t>
+          <t>StMi</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ASKEV</t>
+          <t>SeFa</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CHLO</t>
+          <t>BIDA</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>HABEN</t>
+          <t>DecBen</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DIEAL</t>
+          <t>LFK</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SHEAY</t>
+          <t>GUDW</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>AbDo</t>
-        </is>
-      </c>
-      <c r="C91">
-        <v>0.11</v>
-      </c>
-      <c r="D91">
-        <v>0.1</v>
-      </c>
-      <c r="E91">
-        <v>0.12</v>
-      </c>
-      <c r="F91">
-        <v>0.08</v>
+          <t>ANQU</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ElYa</t>
-        </is>
-      </c>
-      <c r="C92">
-        <v>0.31</v>
-      </c>
-      <c r="D92">
-        <v>0.23</v>
-      </c>
-      <c r="E92">
-        <v>0.18</v>
-      </c>
-      <c r="F92">
-        <v>0.1</v>
+          <t>HETH</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>XaRi</t>
-        </is>
-      </c>
-      <c r="C93">
-        <v>0.05</v>
-      </c>
-      <c r="D93">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E93">
-        <v>0.06</v>
-      </c>
-      <c r="F93">
-        <v>0.05</v>
+          <t>NORE</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NiLe</t>
-        </is>
-      </c>
-      <c r="C94">
-        <v>0.28</v>
-      </c>
-      <c r="D94">
-        <v>0.22</v>
-      </c>
-      <c r="E94">
-        <v>0.08</v>
-      </c>
-      <c r="F94">
-        <v>0.1</v>
+          <t>ANPI</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LaYa</t>
-        </is>
-      </c>
-      <c r="C95">
-        <v>0.18</v>
-      </c>
-      <c r="D95">
-        <v>0.2</v>
-      </c>
-      <c r="E95">
-        <v>0.14</v>
-      </c>
-      <c r="F95">
-        <v>0.08</v>
+          <t>ARWE</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Makedg</t>
+          <t>EMHO</t>
         </is>
       </c>
       <c r="C96">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D96">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="E96">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="F96">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Melgant</t>
-        </is>
-      </c>
-      <c r="C97">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D97">
-        <v>0.15</v>
-      </c>
-      <c r="E97">
-        <v>0.09</v>
-      </c>
-      <c r="F97">
-        <v>0.04</v>
+          <t>LOGO</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Boubil</t>
+          <t>RIVA</t>
         </is>
       </c>
       <c r="C98">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="D98">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="E98">
-        <v>0.05</v>
+        <v>3</v>
       </c>
       <c r="F98">
-        <v>0.04</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JOSZEN</t>
-        </is>
-      </c>
-      <c r="C99">
-        <v>0.12</v>
-      </c>
-      <c r="D99">
-        <v>0.06</v>
-      </c>
-      <c r="E99">
-        <v>0.08</v>
-      </c>
-      <c r="F99">
-        <v>0.03</v>
+          <t>OLHA</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>OlBo</t>
-        </is>
+          <t>FAVE</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>0.21</v>
+      </c>
+      <c r="D100">
+        <v>0.16</v>
+      </c>
+      <c r="E100">
+        <v>0.12</v>
+      </c>
+      <c r="F100">
+        <v>0.13</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>LOCOUA</t>
-        </is>
-      </c>
-      <c r="C101">
-        <v>0.24</v>
-      </c>
-      <c r="D101">
-        <v>0.19</v>
-      </c>
-      <c r="E101">
-        <v>0.17</v>
-      </c>
-      <c r="F101">
-        <v>0.09</v>
+          <t>ELSO</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CaIb</t>
-        </is>
-      </c>
-      <c r="F102">
-        <v>0.28</v>
+          <t>JELE</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>AliTem</t>
-        </is>
-      </c>
-      <c r="C103">
-        <v>0.28</v>
-      </c>
-      <c r="D103">
-        <v>0.27</v>
-      </c>
-      <c r="E103">
-        <v>0.38</v>
-      </c>
-      <c r="F103">
-        <v>0.27</v>
+          <t>MACO</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>kether</t>
+          <t>GAJO</t>
         </is>
       </c>
       <c r="C104">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="D104">
-        <v>0.84</v>
+        <v>0.09</v>
       </c>
       <c r="E104">
-        <v>1.11</v>
+        <v>0.08</v>
       </c>
       <c r="F104">
-        <v>0.49</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>LecJer</t>
-        </is>
-      </c>
-      <c r="C105">
-        <v>0.08</v>
-      </c>
-      <c r="D105">
-        <v>0.16</v>
-      </c>
-      <c r="E105">
-        <v>0.25</v>
-      </c>
-      <c r="F105">
-        <v>0.12</v>
+          <t>BOLE</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KamCed</t>
-        </is>
-      </c>
-      <c r="C106">
-        <v>0.12</v>
-      </c>
-      <c r="D106">
-        <v>0.17</v>
-      </c>
-      <c r="E106">
-        <v>0.23</v>
-      </c>
-      <c r="F106">
-        <v>0.18</v>
+          <t>LOIBAU</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ChPe</t>
+          <t>BODNIC</t>
         </is>
       </c>
       <c r="C107">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="D107">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="E107">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="F107">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>GoJu</t>
-        </is>
+          <t>MISI</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>0.17</v>
+      </c>
+      <c r="D108">
+        <v>0.09</v>
+      </c>
+      <c r="E108">
+        <v>0.08</v>
+      </c>
+      <c r="F108">
+        <v>0.06</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>StMi</t>
-        </is>
+          <t>CHBUS</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>0.18</v>
+      </c>
+      <c r="D109">
+        <v>0.15</v>
+      </c>
+      <c r="E109">
+        <v>0.13</v>
+      </c>
+      <c r="F109">
+        <v>0.15</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SeFa</t>
-        </is>
+          <t>Heyphi</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>0.11</v>
+      </c>
+      <c r="D110">
+        <v>0.15</v>
+      </c>
+      <c r="E110">
+        <v>0.09</v>
+      </c>
+      <c r="F110">
+        <v>0.05</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BIDA</t>
-        </is>
+          <t>CORMI</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>0.12</v>
+      </c>
+      <c r="D111">
+        <v>0.11</v>
+      </c>
+      <c r="E111">
+        <v>0.25</v>
+      </c>
+      <c r="F111">
+        <v>0.08</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MAMU</t>
+          <t>JERO</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SKHY</t>
+          <t>PIDAN</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DecBen</t>
+          <t>JBPI</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>LFK</t>
+          <t>ANPIS</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>GUDW</t>
+          <t>BONJO</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ANQU</t>
+          <t>RATRA</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>HETH</t>
-        </is>
+          <t>Ratseb</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>0.24</v>
+      </c>
+      <c r="D118">
+        <v>0.25</v>
+      </c>
+      <c r="E118">
+        <v>0.22</v>
+      </c>
+      <c r="F118">
+        <v>0.16</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NORE</t>
-        </is>
+          <t>JCVAN</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>0.2</v>
+      </c>
+      <c r="D119">
+        <v>0.28</v>
+      </c>
+      <c r="E119">
+        <v>0.19</v>
+      </c>
+      <c r="F119">
+        <v>0.09</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SIDE</t>
-        </is>
+          <t>RENPI</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>0.47</v>
+      </c>
+      <c r="D120">
+        <v>0.22</v>
+      </c>
+      <c r="E120">
+        <v>0.23</v>
+      </c>
+      <c r="F120">
+        <v>0.16</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ANPI</t>
-        </is>
+          <t>VANFRA</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>0.29</v>
+      </c>
+      <c r="D121">
+        <v>0.26</v>
+      </c>
+      <c r="E121">
+        <v>0.27</v>
+      </c>
+      <c r="F121">
+        <v>0.18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ARWE</t>
-        </is>
+          <t>JACVAN</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>0.5</v>
+      </c>
+      <c r="D122">
+        <v>0.47</v>
+      </c>
+      <c r="E122">
+        <v>0.52</v>
+      </c>
+      <c r="F122">
+        <v>0.27</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>EMHO</t>
-        </is>
-      </c>
-      <c r="C123">
-        <v>0.19</v>
-      </c>
-      <c r="D123">
-        <v>0.15</v>
-      </c>
-      <c r="E123">
-        <v>0.17</v>
-      </c>
-      <c r="F123">
-        <v>0.25</v>
+          <t>FLOND</t>
+        </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>LOGO</t>
-        </is>
+          <t>DinPhu</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>0.11</v>
+      </c>
+      <c r="D124">
+        <v>0.1</v>
+      </c>
+      <c r="E124">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F124">
+        <v>0.18</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>RIVA</t>
-        </is>
-      </c>
-      <c r="C125">
-        <v>0.14</v>
-      </c>
-      <c r="D125">
-        <v>0.1</v>
-      </c>
-      <c r="E125">
-        <v>3</v>
-      </c>
-      <c r="F125">
-        <v>0.018</v>
+          <t>LUMAR</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>OLHA</t>
+          <t>DaMo</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FAVE</t>
-        </is>
-      </c>
-      <c r="C127">
-        <v>0.21</v>
-      </c>
-      <c r="D127">
-        <v>0.16</v>
-      </c>
-      <c r="E127">
-        <v>0.12</v>
-      </c>
-      <c r="F127">
-        <v>0.13</v>
+          <t>GJJO</t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ELSO</t>
+          <t>MAGEN</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>JELE</t>
+          <t>POVI</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MACO</t>
+          <t>FRMA</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>GAJO</t>
-        </is>
-      </c>
-      <c r="C131">
-        <v>0.1</v>
-      </c>
-      <c r="D131">
-        <v>0.09</v>
-      </c>
-      <c r="E131">
-        <v>0.08</v>
-      </c>
-      <c r="F131">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>135</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>BOLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>136</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>LOIBAU</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>137</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>BODNIC</t>
-        </is>
-      </c>
-      <c r="C134">
-        <v>0.24</v>
-      </c>
-      <c r="D134">
-        <v>0.16</v>
-      </c>
-      <c r="E134">
-        <v>0.16</v>
-      </c>
-      <c r="F134">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>138</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>MISI</t>
-        </is>
-      </c>
-      <c r="C135">
-        <v>0.17</v>
-      </c>
-      <c r="D135">
-        <v>0.09</v>
-      </c>
-      <c r="E135">
-        <v>0.08</v>
-      </c>
-      <c r="F135">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>139</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>CHBUS</t>
-        </is>
-      </c>
-      <c r="C136">
-        <v>0.18</v>
-      </c>
-      <c r="D136">
-        <v>0.15</v>
-      </c>
-      <c r="E136">
-        <v>0.13</v>
-      </c>
-      <c r="F136">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>140</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Heyphi</t>
-        </is>
-      </c>
-      <c r="C137">
-        <v>0.11</v>
-      </c>
-      <c r="D137">
-        <v>0.15</v>
-      </c>
-      <c r="E137">
-        <v>0.09</v>
-      </c>
-      <c r="F137">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>141</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>CORMI</t>
-        </is>
-      </c>
-      <c r="C138">
-        <v>0.12</v>
-      </c>
-      <c r="D138">
-        <v>0.11</v>
-      </c>
-      <c r="E138">
-        <v>0.25</v>
-      </c>
-      <c r="F138">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>142</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Albfre</t>
-        </is>
-      </c>
-      <c r="C139">
-        <v>0.1</v>
-      </c>
-      <c r="D139">
-        <v>0.11</v>
-      </c>
-      <c r="E139">
-        <v>0.12</v>
-      </c>
-      <c r="F139">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>143</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>JERO</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>144</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>PIDAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>145</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>JBPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144">
-        <v>147</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>ANPIS</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145">
-        <v>148</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>ANGBEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146">
-        <v>149</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>MABI</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147">
-        <v>150</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>BONJO</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148">
-        <v>151</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>RATRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149">
-        <v>152</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Ratseb</t>
-        </is>
-      </c>
-      <c r="C149">
-        <v>0.24</v>
-      </c>
-      <c r="D149">
-        <v>0.25</v>
-      </c>
-      <c r="E149">
-        <v>0.22</v>
-      </c>
-      <c r="F149">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150">
-        <v>153</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>GISGEO</t>
-        </is>
-      </c>
-      <c r="C150">
-        <v>0.38</v>
-      </c>
-      <c r="D150">
-        <v>0.41</v>
-      </c>
-      <c r="E150">
-        <v>0.36</v>
-      </c>
-      <c r="F150">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151">
-        <v>154</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>JCVAN</t>
-        </is>
-      </c>
-      <c r="C151">
-        <v>0.2</v>
-      </c>
-      <c r="D151">
-        <v>0.28</v>
-      </c>
-      <c r="E151">
-        <v>0.19</v>
-      </c>
-      <c r="F151">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152">
-        <v>155</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>RENPI</t>
-        </is>
-      </c>
-      <c r="C152">
-        <v>0.47</v>
-      </c>
-      <c r="D152">
-        <v>0.22</v>
-      </c>
-      <c r="E152">
-        <v>0.23</v>
-      </c>
-      <c r="F152">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153">
-        <v>156</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>VANFRA</t>
-        </is>
-      </c>
-      <c r="C153">
-        <v>0.29</v>
-      </c>
-      <c r="D153">
-        <v>0.26</v>
-      </c>
-      <c r="E153">
-        <v>0.27</v>
-      </c>
-      <c r="F153">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154">
-        <v>157</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>JuTin</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155">
-        <v>160</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>JACVAN</t>
-        </is>
-      </c>
-      <c r="C155">
-        <v>0.5</v>
-      </c>
-      <c r="D155">
-        <v>0.47</v>
-      </c>
-      <c r="E155">
-        <v>0.52</v>
-      </c>
-      <c r="F155">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156">
-        <v>181</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>FLOND</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157">
-        <v>182</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>SIDM</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158">
-        <v>183</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>BENI</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159">
-        <v>184</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>DinPhu</t>
-        </is>
-      </c>
-      <c r="C159">
-        <v>0.11</v>
-      </c>
-      <c r="D159">
-        <v>0.1</v>
-      </c>
-      <c r="E159">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F159">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160">
-        <v>185</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>LUMAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161">
-        <v>186</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>DaMo</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162">
-        <v>187</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>GJJO</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163">
-        <v>188</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>MAGEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164">
-        <v>189</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>POVI</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165">
-        <v>190</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>FRMA</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166">
-        <v>191</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>TBODE</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167">
-        <v>192</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
           <t>GAUBRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168">
-        <v>193</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>ERMOO</t>
         </is>
       </c>
     </row>

--- a/Output/Cortisol.xlsx
+++ b/Output/Cortisol.xlsx
@@ -552,6 +552,18 @@
           <t>ZaHa</t>
         </is>
       </c>
+      <c r="C9">
+        <v>0.04</v>
+      </c>
+      <c r="D9">
+        <v>0.03</v>
+      </c>
+      <c r="E9">
+        <v>0.02</v>
+      </c>
+      <c r="F9">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -1002,6 +1014,18 @@
           <t>Brse</t>
         </is>
       </c>
+      <c r="C30">
+        <v>0.33</v>
+      </c>
+      <c r="D30">
+        <v>0.28</v>
+      </c>
+      <c r="E30">
+        <v>0.1</v>
+      </c>
+      <c r="F30">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1594,6 +1618,12 @@
           <t>MonChri</t>
         </is>
       </c>
+      <c r="C58">
+        <v>0.17</v>
+      </c>
+      <c r="D58">
+        <v>0.21</v>
+      </c>
       <c r="E58">
         <v>0.23</v>
       </c>
@@ -1654,6 +1684,18 @@
           <t>HabCha</t>
         </is>
       </c>
+      <c r="C61">
+        <v>0.12</v>
+      </c>
+      <c r="D61">
+        <v>0.11</v>
+      </c>
+      <c r="E61">
+        <v>0.11</v>
+      </c>
+      <c r="F61">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -1664,6 +1706,18 @@
           <t>BoucIli</t>
         </is>
       </c>
+      <c r="C62">
+        <v>0.1</v>
+      </c>
+      <c r="D62">
+        <v>0.12</v>
+      </c>
+      <c r="E62">
+        <v>0.11</v>
+      </c>
+      <c r="F62">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -1674,6 +1728,18 @@
           <t>DaiAnt</t>
         </is>
       </c>
+      <c r="C63">
+        <v>0.26</v>
+      </c>
+      <c r="D63">
+        <v>0.22</v>
+      </c>
+      <c r="E63">
+        <v>0.24</v>
+      </c>
+      <c r="F63">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -1788,6 +1854,18 @@
           <t>DIEAL</t>
         </is>
       </c>
+      <c r="C72">
+        <v>0.19</v>
+      </c>
+      <c r="D72">
+        <v>0.08</v>
+      </c>
+      <c r="E72">
+        <v>0.06</v>
+      </c>
+      <c r="F72">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -1798,6 +1876,18 @@
           <t>SHEAY</t>
         </is>
       </c>
+      <c r="C73">
+        <v>0.02</v>
+      </c>
+      <c r="D73">
+        <v>0.09</v>
+      </c>
+      <c r="E73">
+        <v>0.08</v>
+      </c>
+      <c r="F73">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -2028,6 +2118,18 @@
           <t>GoJu</t>
         </is>
       </c>
+      <c r="C84">
+        <v>0.14</v>
+      </c>
+      <c r="D84">
+        <v>0.15</v>
+      </c>
+      <c r="E84">
+        <v>0.1</v>
+      </c>
+      <c r="F84">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -2038,6 +2140,18 @@
           <t>StMi</t>
         </is>
       </c>
+      <c r="C85">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D85">
+        <v>0.09</v>
+      </c>
+      <c r="E85">
+        <v>0.39</v>
+      </c>
+      <c r="F85">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -2048,6 +2162,18 @@
           <t>SeFa</t>
         </is>
       </c>
+      <c r="C86">
+        <v>0.42</v>
+      </c>
+      <c r="D86">
+        <v>0.13</v>
+      </c>
+      <c r="E86">
+        <v>0.08</v>
+      </c>
+      <c r="F86">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -2058,6 +2184,18 @@
           <t>BIDA</t>
         </is>
       </c>
+      <c r="C87">
+        <v>0.34</v>
+      </c>
+      <c r="D87">
+        <v>0.21</v>
+      </c>
+      <c r="E87">
+        <v>0.34</v>
+      </c>
+      <c r="F87">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -2068,6 +2206,18 @@
           <t>DecBen</t>
         </is>
       </c>
+      <c r="C88">
+        <v>0.17</v>
+      </c>
+      <c r="D88">
+        <v>0.06</v>
+      </c>
+      <c r="E88">
+        <v>0.08</v>
+      </c>
+      <c r="F88">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -2078,6 +2228,18 @@
           <t>LFK</t>
         </is>
       </c>
+      <c r="C89">
+        <v>0.09</v>
+      </c>
+      <c r="D89">
+        <v>0.08</v>
+      </c>
+      <c r="E89">
+        <v>0.05</v>
+      </c>
+      <c r="F89">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -2088,6 +2250,18 @@
           <t>GUDW</t>
         </is>
       </c>
+      <c r="C90">
+        <v>0.26</v>
+      </c>
+      <c r="D90">
+        <v>0.17</v>
+      </c>
+      <c r="E90">
+        <v>0.14</v>
+      </c>
+      <c r="F90">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -2098,6 +2272,18 @@
           <t>ANQU</t>
         </is>
       </c>
+      <c r="C91">
+        <v>0.37</v>
+      </c>
+      <c r="D91">
+        <v>0.23</v>
+      </c>
+      <c r="E91">
+        <v>0.2</v>
+      </c>
+      <c r="F91">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -2108,6 +2294,18 @@
           <t>HETH</t>
         </is>
       </c>
+      <c r="C92">
+        <v>0.13</v>
+      </c>
+      <c r="D92">
+        <v>0.15</v>
+      </c>
+      <c r="E92">
+        <v>0.15</v>
+      </c>
+      <c r="F92">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -2128,6 +2326,18 @@
           <t>ANPI</t>
         </is>
       </c>
+      <c r="C94">
+        <v>0.17</v>
+      </c>
+      <c r="D94">
+        <v>0.17</v>
+      </c>
+      <c r="E94">
+        <v>0.3</v>
+      </c>
+      <c r="F94">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -2202,6 +2412,18 @@
           <t>OLHA</t>
         </is>
       </c>
+      <c r="C99">
+        <v>0.36</v>
+      </c>
+      <c r="D99">
+        <v>0.49</v>
+      </c>
+      <c r="E99">
+        <v>0.97</v>
+      </c>
+      <c r="F99">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -2234,6 +2456,18 @@
           <t>ELSO</t>
         </is>
       </c>
+      <c r="C101">
+        <v>0.26</v>
+      </c>
+      <c r="D101">
+        <v>0.2</v>
+      </c>
+      <c r="E101">
+        <v>0.26</v>
+      </c>
+      <c r="F101">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -2244,6 +2478,18 @@
           <t>JELE</t>
         </is>
       </c>
+      <c r="C102">
+        <v>0.1</v>
+      </c>
+      <c r="D102">
+        <v>0.13</v>
+      </c>
+      <c r="E102">
+        <v>0.28</v>
+      </c>
+      <c r="F102">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -2254,6 +2500,18 @@
           <t>MACO</t>
         </is>
       </c>
+      <c r="C103">
+        <v>0.25</v>
+      </c>
+      <c r="D103">
+        <v>0.22</v>
+      </c>
+      <c r="E103">
+        <v>0.22</v>
+      </c>
+      <c r="F103">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -2286,6 +2544,18 @@
           <t>BOLE</t>
         </is>
       </c>
+      <c r="C105">
+        <v>0.16</v>
+      </c>
+      <c r="D105">
+        <v>0.15</v>
+      </c>
+      <c r="E105">
+        <v>0.12</v>
+      </c>
+      <c r="F105">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -2296,6 +2566,18 @@
           <t>LOIBAU</t>
         </is>
       </c>
+      <c r="C106">
+        <v>0.23</v>
+      </c>
+      <c r="D106">
+        <v>0.18</v>
+      </c>
+      <c r="E106">
+        <v>0.15</v>
+      </c>
+      <c r="F106">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -2416,6 +2698,18 @@
           <t>JERO</t>
         </is>
       </c>
+      <c r="C112">
+        <v>0.04</v>
+      </c>
+      <c r="D112">
+        <v>0.08</v>
+      </c>
+      <c r="E112">
+        <v>0.09</v>
+      </c>
+      <c r="F112">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -2586,6 +2880,18 @@
           <t>FLOND</t>
         </is>
       </c>
+      <c r="C123">
+        <v>0.17</v>
+      </c>
+      <c r="D123">
+        <v>0.25</v>
+      </c>
+      <c r="E123">
+        <v>0.21</v>
+      </c>
+      <c r="F123">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -2618,6 +2924,18 @@
           <t>LUMAR</t>
         </is>
       </c>
+      <c r="C125">
+        <v>0.17</v>
+      </c>
+      <c r="D125">
+        <v>0.17</v>
+      </c>
+      <c r="E125">
+        <v>0.18</v>
+      </c>
+      <c r="F125">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -2658,6 +2976,18 @@
           <t>POVI</t>
         </is>
       </c>
+      <c r="C129">
+        <v>0.05</v>
+      </c>
+      <c r="D129">
+        <v>0.17</v>
+      </c>
+      <c r="E129">
+        <v>0.02</v>
+      </c>
+      <c r="F129">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -2667,6 +2997,18 @@
         <is>
           <t>FRMA</t>
         </is>
+      </c>
+      <c r="C130">
+        <v>0.11</v>
+      </c>
+      <c r="D130">
+        <v>0.08</v>
+      </c>
+      <c r="E130">
+        <v>0.03</v>
+      </c>
+      <c r="F130">
+        <v>0.03</v>
       </c>
     </row>
     <row r="131">

--- a/Output/Cortisol.xlsx
+++ b/Output/Cortisol.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,1521 +457,1593 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>YaMe</t>
+          <t>JeVe</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D5">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E5">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="F5">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GbEl</t>
+          <t>YaMe</t>
         </is>
       </c>
       <c r="C6">
+        <v>0.06</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
         <v>0.13</v>
       </c>
-      <c r="D6">
-        <v>0.11</v>
-      </c>
-      <c r="E6">
-        <v>0.09</v>
-      </c>
       <c r="F6">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VoMa</t>
+          <t>GbEl</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="D7">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E7">
         <v>0.09</v>
       </c>
       <c r="F7">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SoKa</t>
+          <t>MoTh</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="E8">
-        <v>0.41</v>
+        <v>0.09</v>
       </c>
       <c r="F8">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZaHa</t>
+          <t>VoMa</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="D9">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="E9">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="F9">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NkPl</t>
+          <t>SoKa</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D10">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0.11</v>
+        <v>0.41</v>
       </c>
       <c r="F10">
-        <v>0.07000000000000001</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GeNg</t>
+          <t>ZaHa</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="D11">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AuKa</t>
+          <t>NkPl</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E12">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="F12">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NgFl</t>
+          <t>GeNg</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="D13">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="E13">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="F13">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>JaPa</t>
+          <t>AuKa</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="D14">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E14">
+        <v>0.18</v>
+      </c>
+      <c r="F14">
         <v>0.13</v>
-      </c>
-      <c r="F14">
-        <v>0.83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AnPa</t>
+          <t>NgFl</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="D15">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="E15">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="F15">
-        <v>0.22</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VaDe</t>
+          <t>JaPa</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="D16">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E16">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F16">
-        <v>0.13</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JeAx</t>
+          <t>AnPa</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.16</v>
+        <v>0.34</v>
       </c>
       <c r="D17">
-        <v>0.14</v>
+        <v>0.31</v>
       </c>
       <c r="E17">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F17">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PeMa</t>
+          <t>VaDe</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="D18">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="E18">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F18">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JaEd</t>
+          <t>MeTh</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="D19">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="E19">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="F19">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DuJu</t>
+          <t>VaTh</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="D20">
         <v>0.15</v>
       </c>
       <c r="E20">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F20">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>YaAdr</t>
+          <t>JeAx</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="D21">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E21">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F21">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SyGe</t>
+          <t>PeMa</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="D22">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="E22">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="F22">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MaJe</t>
+          <t>JaEd</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="D23">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="E23">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F23">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AnSo</t>
+          <t>KuOn</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.69</v>
+        <v>0.55</v>
       </c>
       <c r="D24">
-        <v>0.07000000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="E24">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="F24">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ArGo</t>
+          <t>DuJu</t>
         </is>
       </c>
       <c r="C25">
+        <v>0.22</v>
+      </c>
+      <c r="D25">
+        <v>0.15</v>
+      </c>
+      <c r="E25">
+        <v>0.14</v>
+      </c>
+      <c r="F25">
         <v>0.11</v>
-      </c>
-      <c r="D25">
-        <v>0.09</v>
-      </c>
-      <c r="E25">
-        <v>0.12</v>
-      </c>
-      <c r="F25">
-        <v>0.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mami</t>
+          <t>YaAdr</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D26">
-        <v>0.55</v>
+        <v>0.12</v>
       </c>
       <c r="E26">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="F26">
-        <v>0.31</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Vaga</t>
+          <t>SyGe</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="D27">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="E27">
-        <v>0.43</v>
+        <v>0.18</v>
       </c>
       <c r="F27">
-        <v>0.71</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Piol</t>
+          <t>MaJe</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.41</v>
+        <v>0.06</v>
       </c>
       <c r="D28">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="E28">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="F28">
-        <v>0.65</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fuda</t>
+          <t>AnSo</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.4</v>
+        <v>0.69</v>
       </c>
       <c r="D29">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E29">
+        <v>0.09</v>
+      </c>
+      <c r="F29">
         <v>0.3</v>
-      </c>
-      <c r="F29">
-        <v>0.29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Brse</t>
+          <t>ArGo</t>
         </is>
       </c>
       <c r="C30">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="D30">
-        <v>0.28</v>
+        <v>0.09</v>
       </c>
       <c r="E30">
+        <v>0.12</v>
+      </c>
+      <c r="F30">
         <v>0.1</v>
-      </c>
-      <c r="F30">
-        <v>0.17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>JoAm</t>
-        </is>
+          <t>YoCa</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <v>0.58</v>
+      </c>
+      <c r="E31">
+        <v>0.92</v>
+      </c>
+      <c r="F31">
+        <v>0.82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bomo</t>
+          <t>Mami</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="D32">
-        <v>0.23</v>
+        <v>0.55</v>
       </c>
       <c r="E32">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="F32">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Rase</t>
+          <t>RiSt</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="D33">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="E33">
-        <v>0.59</v>
+        <v>0.16</v>
       </c>
       <c r="F33">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Poma</t>
+          <t>Vaga</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.08</v>
+        <v>0.9</v>
       </c>
       <c r="D34">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="E34">
-        <v>0.09</v>
+        <v>0.43</v>
       </c>
       <c r="F34">
-        <v>0.05</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Yaer</t>
+          <t>Piol</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="D35">
+        <v>0.41</v>
+      </c>
+      <c r="E35">
         <v>0.31</v>
       </c>
-      <c r="E35">
-        <v>0.51</v>
-      </c>
       <c r="F35">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Quwa</t>
+          <t>Fuda</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="D36">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="E36">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="F36">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ElYo</t>
+          <t>Brse</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="D37">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="E37">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="F37">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Coch</t>
-        </is>
-      </c>
-      <c r="C38">
-        <v>0.37</v>
-      </c>
-      <c r="D38">
-        <v>0.38</v>
-      </c>
-      <c r="E38">
-        <v>0.41</v>
-      </c>
-      <c r="F38">
-        <v>0.24</v>
+          <t>JoAm</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Vino</t>
+          <t>Bomo</t>
         </is>
       </c>
       <c r="C39">
+        <v>0.17</v>
+      </c>
+      <c r="D39">
         <v>0.23</v>
       </c>
-      <c r="D39">
-        <v>0.16</v>
-      </c>
       <c r="E39">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F39">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bebl</t>
+          <t>Jeva</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="D40">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="E40">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="F40">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JosEst</t>
+          <t>Rase</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.1</v>
+        <v>0.38</v>
       </c>
       <c r="D41">
-        <v>0.14</v>
+        <v>0.31</v>
       </c>
       <c r="E41">
-        <v>0.2</v>
+        <v>0.59</v>
       </c>
       <c r="F41">
-        <v>1.63</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HaJo</t>
+          <t>Poma</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="D42">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="E42">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="F42">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HoYa</t>
+          <t>Yiha</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.54</v>
+        <v>0.12</v>
       </c>
       <c r="D43">
-        <v>0.34</v>
+        <v>0.14</v>
       </c>
       <c r="E43">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="F43">
-        <v>0.18</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MaNa</t>
+          <t>Yaer</t>
         </is>
       </c>
       <c r="C44">
+        <v>0.33</v>
+      </c>
+      <c r="D44">
         <v>0.31</v>
       </c>
-      <c r="D44">
-        <v>0.22</v>
-      </c>
       <c r="E44">
-        <v>0.17</v>
+        <v>0.51</v>
       </c>
       <c r="F44">
-        <v>0.12</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DeGa</t>
+          <t>Quwa</t>
         </is>
       </c>
       <c r="C45">
+        <v>0.19</v>
+      </c>
+      <c r="D45">
+        <v>0.15</v>
+      </c>
+      <c r="E45">
         <v>0.12</v>
       </c>
-      <c r="D45">
-        <v>0.11</v>
-      </c>
-      <c r="E45">
-        <v>0.11</v>
-      </c>
       <c r="F45">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HuLa</t>
+          <t>ElYo</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="D46">
-        <v>0.04</v>
+        <v>0.23</v>
       </c>
       <c r="E46">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MaGo</t>
+          <t>HaAbd</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="D47">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="E47">
-        <v>0.11</v>
+        <v>0.36</v>
       </c>
       <c r="F47">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DoIm</t>
+          <t>Coch</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.08</v>
+        <v>0.37</v>
       </c>
       <c r="D48">
-        <v>0.07000000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="E48">
-        <v>0.05</v>
+        <v>0.41</v>
       </c>
       <c r="F48">
-        <v>0.03</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HaVa</t>
+          <t>Vino</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="D49">
+        <v>0.16</v>
+      </c>
+      <c r="E49">
         <v>0.2</v>
       </c>
-      <c r="E49">
-        <v>0.24</v>
-      </c>
       <c r="F49">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>JoRo</t>
+          <t>Bebl</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="D50">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="E50">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="F50">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MoKi</t>
+          <t>JosEst</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="D51">
-        <v>0.41</v>
+        <v>0.14</v>
       </c>
       <c r="E51">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="F51">
-        <v>0.34</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DeKo</t>
+          <t>HaJo</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="D52">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="E52">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="F52">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DeTi</t>
+          <t>HoYa</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
       <c r="D53">
+        <v>0.34</v>
+      </c>
+      <c r="E53">
         <v>0.31</v>
       </c>
-      <c r="E53">
-        <v>0.17</v>
-      </c>
       <c r="F53">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SaSy</t>
+          <t>GeMa</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D54">
-        <v>0.31</v>
+        <v>0.1</v>
       </c>
       <c r="E54">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="F54">
-        <v>0.23</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>KaMo</t>
+          <t>MaNa</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="D55">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="E55">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="F55">
-        <v>0.64</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HagAnd</t>
+          <t>DeGa</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.73</v>
+        <v>0.12</v>
       </c>
       <c r="D56">
-        <v>0.54</v>
+        <v>0.11</v>
       </c>
       <c r="E56">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="F56">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NgoRoy</t>
+          <t>HuLa</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.64</v>
+        <v>0.15</v>
       </c>
       <c r="D57">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="E57">
-        <v>0.35</v>
+        <v>0.08</v>
       </c>
       <c r="F57">
-        <v>0.62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MonChri</t>
+          <t>MaGo</t>
         </is>
       </c>
       <c r="C58">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="D58">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="E58">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="F58">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LetLuc</t>
+          <t>OzMo</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.46</v>
+        <v>0.16</v>
       </c>
       <c r="D59">
-        <v>1.17</v>
+        <v>0.2</v>
       </c>
       <c r="E59">
-        <v>0.99</v>
+        <v>0.25</v>
       </c>
       <c r="F59">
-        <v>0.5600000000000001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>KalDim</t>
+          <t>DoIm</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
       <c r="D60">
-        <v>0.28</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E60">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="F60">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>HabCha</t>
+          <t>HaVa</t>
         </is>
       </c>
       <c r="C61">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
       <c r="D61">
+        <v>0.2</v>
+      </c>
+      <c r="E61">
+        <v>0.24</v>
+      </c>
+      <c r="F61">
         <v>0.11</v>
-      </c>
-      <c r="E61">
-        <v>0.11</v>
-      </c>
-      <c r="F61">
-        <v>0.06</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BoucIli</t>
+          <t>JoRo</t>
         </is>
       </c>
       <c r="C62">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="D62">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="E62">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="F62">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DaiAnt</t>
+          <t>MaBi</t>
         </is>
       </c>
       <c r="C63">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="D63">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="E63">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="F63">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LemAnd</t>
+          <t>MoKi</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.09</v>
+        <v>0.41</v>
       </c>
       <c r="D64">
-        <v>0.08</v>
+        <v>0.41</v>
       </c>
       <c r="E64">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="F64">
-        <v>0.04</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FlSm</t>
+          <t>DeKo</t>
         </is>
       </c>
       <c r="C65">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="D65">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="E65">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="F65">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRENI</t>
-        </is>
+          <t>MoDa</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>0.21</v>
+      </c>
+      <c r="D66">
+        <v>0.3</v>
+      </c>
+      <c r="E66">
+        <v>0.25</v>
+      </c>
+      <c r="F66">
+        <v>0.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIALI</t>
-        </is>
+          <t>Nanu</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>0.03</v>
+      </c>
+      <c r="D67">
+        <v>0.05</v>
+      </c>
+      <c r="E67">
+        <v>0.02</v>
+      </c>
+      <c r="F67">
+        <v>0.03</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>COMAX</t>
-        </is>
+          <t>DeTi</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>0.38</v>
+      </c>
+      <c r="D68">
+        <v>0.31</v>
+      </c>
+      <c r="E68">
+        <v>0.17</v>
+      </c>
+      <c r="F68">
+        <v>0.11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ASKEV</t>
-        </is>
+          <t>NyEd</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>0.28</v>
+      </c>
+      <c r="D69">
+        <v>0.4</v>
+      </c>
+      <c r="E69">
+        <v>0.23</v>
+      </c>
+      <c r="F69">
+        <v>0.22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CHLO</t>
-        </is>
+          <t>SaSy</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>0.3</v>
+      </c>
+      <c r="D70">
+        <v>0.31</v>
+      </c>
+      <c r="E70">
+        <v>0.24</v>
+      </c>
+      <c r="F70">
+        <v>0.23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>HABEN</t>
-        </is>
+          <t>KaMo</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>0.25</v>
+      </c>
+      <c r="D71">
+        <v>0.25</v>
+      </c>
+      <c r="E71">
+        <v>0.36</v>
+      </c>
+      <c r="F71">
+        <v>0.64</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DIEAL</t>
+          <t>BukJma</t>
         </is>
       </c>
       <c r="C72">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="D72">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="E72">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="F72">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SHEAY</t>
+          <t>HagAnd</t>
         </is>
       </c>
       <c r="C73">
-        <v>0.02</v>
+        <v>0.73</v>
       </c>
       <c r="D73">
-        <v>0.09</v>
+        <v>0.54</v>
       </c>
       <c r="E73">
-        <v>0.08</v>
+        <v>0.28</v>
       </c>
       <c r="F73">
-        <v>0.07000000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AbDo</t>
+          <t>NgoRoy</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.11</v>
+        <v>0.64</v>
       </c>
       <c r="D74">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E74">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="F74">
-        <v>0.08</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ElYa</t>
+          <t>MonChri</t>
         </is>
       </c>
       <c r="C75">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="D75">
+        <v>0.21</v>
+      </c>
+      <c r="E75">
         <v>0.23</v>
       </c>
-      <c r="E75">
-        <v>0.18</v>
-      </c>
       <c r="F75">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>XaRi</t>
+          <t>LetLuc</t>
         </is>
       </c>
       <c r="C76">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="D76">
-        <v>0.07000000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="E76">
-        <v>0.06</v>
+        <v>0.99</v>
       </c>
       <c r="F76">
-        <v>0.05</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NiLe</t>
+          <t>KalDim</t>
         </is>
       </c>
       <c r="C77">
+        <v>0.34</v>
+      </c>
+      <c r="D77">
         <v>0.28</v>
       </c>
-      <c r="D77">
-        <v>0.22</v>
-      </c>
       <c r="E77">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="F77">
         <v>0.1</v>
@@ -1979,329 +2051,257 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LaYa</t>
+          <t>HabCha</t>
         </is>
       </c>
       <c r="C78">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="D78">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="E78">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="F78">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JOSZEN</t>
+          <t>BoucIli</t>
         </is>
       </c>
       <c r="C79">
+        <v>0.1</v>
+      </c>
+      <c r="D79">
         <v>0.12</v>
       </c>
-      <c r="D79">
-        <v>0.06</v>
-      </c>
       <c r="E79">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="F79">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>AliTem</t>
+          <t>DaiAnt</t>
         </is>
       </c>
       <c r="C80">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="D80">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="E80">
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
       <c r="F80">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>kether</t>
+          <t>LemAnd</t>
         </is>
       </c>
       <c r="C81">
-        <v>0.28</v>
+        <v>0.09</v>
       </c>
       <c r="D81">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E81">
-        <v>1.11</v>
+        <v>0.06</v>
       </c>
       <c r="F81">
-        <v>0.49</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>KamCed</t>
+          <t>FlSm</t>
         </is>
       </c>
       <c r="C82">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="D82">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="E82">
         <v>0.23</v>
       </c>
       <c r="F82">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ChPe</t>
-        </is>
-      </c>
-      <c r="C83">
-        <v>0.15</v>
-      </c>
-      <c r="D83">
-        <v>0.13</v>
-      </c>
-      <c r="E83">
-        <v>0.19</v>
-      </c>
-      <c r="F83">
-        <v>0.09</v>
+          <t>TRENI</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GoJu</t>
-        </is>
-      </c>
-      <c r="C84">
-        <v>0.14</v>
-      </c>
-      <c r="D84">
-        <v>0.15</v>
-      </c>
-      <c r="E84">
-        <v>0.1</v>
-      </c>
-      <c r="F84">
-        <v>0.08</v>
+          <t>BIALI</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>StMi</t>
-        </is>
-      </c>
-      <c r="C85">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D85">
-        <v>0.09</v>
-      </c>
-      <c r="E85">
-        <v>0.39</v>
-      </c>
-      <c r="F85">
-        <v>0.54</v>
+          <t>COMAX</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SeFa</t>
-        </is>
-      </c>
-      <c r="C86">
-        <v>0.42</v>
-      </c>
-      <c r="D86">
-        <v>0.13</v>
-      </c>
-      <c r="E86">
-        <v>0.08</v>
-      </c>
-      <c r="F86">
-        <v>0.09</v>
+          <t>ASKEV</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BIDA</t>
-        </is>
-      </c>
-      <c r="C87">
-        <v>0.34</v>
-      </c>
-      <c r="D87">
-        <v>0.21</v>
-      </c>
-      <c r="E87">
-        <v>0.34</v>
-      </c>
-      <c r="F87">
-        <v>0.17</v>
+          <t>CHLO</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DecBen</t>
-        </is>
-      </c>
-      <c r="C88">
-        <v>0.17</v>
-      </c>
-      <c r="D88">
-        <v>0.06</v>
-      </c>
-      <c r="E88">
-        <v>0.08</v>
-      </c>
-      <c r="F88">
-        <v>0.06</v>
+          <t>HABEN</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>LFK</t>
+          <t>DIEAL</t>
         </is>
       </c>
       <c r="C89">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="D89">
         <v>0.08</v>
       </c>
       <c r="E89">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F89">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GUDW</t>
+          <t>SHEAY</t>
         </is>
       </c>
       <c r="C90">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="D90">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="E90">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="F90">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ANQU</t>
+          <t>AbDo</t>
         </is>
       </c>
       <c r="C91">
-        <v>0.37</v>
+        <v>0.11</v>
       </c>
       <c r="D91">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="E91">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="F91">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HETH</t>
+          <t>ElYa</t>
         </is>
       </c>
       <c r="C92">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="D92">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="E92">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="F92">
         <v>0.1</v>
@@ -2309,715 +2309,1428 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NORE</t>
-        </is>
+          <t>XaRi</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>0.05</v>
+      </c>
+      <c r="D93">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E93">
+        <v>0.06</v>
+      </c>
+      <c r="F93">
+        <v>0.05</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ANPI</t>
+          <t>NiLe</t>
         </is>
       </c>
       <c r="C94">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="D94">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="E94">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="F94">
-        <v>0.31</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ARWE</t>
-        </is>
+          <t>LaYa</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>0.18</v>
+      </c>
+      <c r="D95">
+        <v>0.2</v>
+      </c>
+      <c r="E95">
+        <v>0.14</v>
+      </c>
+      <c r="F95">
+        <v>0.08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>EMHO</t>
+          <t>Makedg</t>
         </is>
       </c>
       <c r="C96">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D96">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="E96">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="F96">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>LOGO</t>
-        </is>
+          <t>Melgant</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D97">
+        <v>0.15</v>
+      </c>
+      <c r="E97">
+        <v>0.09</v>
+      </c>
+      <c r="F97">
+        <v>0.04</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RIVA</t>
+          <t>Boubil</t>
         </is>
       </c>
       <c r="C98">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="D98">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="F98">
-        <v>0.018</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>OLHA</t>
+          <t>JOSZEN</t>
         </is>
       </c>
       <c r="C99">
-        <v>0.36</v>
+        <v>0.12</v>
       </c>
       <c r="D99">
-        <v>0.49</v>
+        <v>0.06</v>
       </c>
       <c r="E99">
-        <v>0.97</v>
+        <v>0.08</v>
       </c>
       <c r="F99">
-        <v>0.87</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FAVE</t>
-        </is>
-      </c>
-      <c r="C100">
-        <v>0.21</v>
-      </c>
-      <c r="D100">
-        <v>0.16</v>
-      </c>
-      <c r="E100">
-        <v>0.12</v>
-      </c>
-      <c r="F100">
-        <v>0.13</v>
+          <t>OlBo</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ELSO</t>
+          <t>LOCOUA</t>
         </is>
       </c>
       <c r="C101">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="D101">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E101">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="F101">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>JELE</t>
+          <t>CaIb</t>
         </is>
       </c>
       <c r="C102">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D102">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="E102">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="F102">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MACO</t>
+          <t>AliTem</t>
         </is>
       </c>
       <c r="C103">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="D103">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="E103">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="F103">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GAJO</t>
+          <t>kether</t>
         </is>
       </c>
       <c r="C104">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
       <c r="D104">
-        <v>0.09</v>
+        <v>0.84</v>
       </c>
       <c r="E104">
-        <v>0.08</v>
+        <v>1.11</v>
       </c>
       <c r="F104">
-        <v>0.07000000000000001</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BOLE</t>
+          <t>LecJer</t>
         </is>
       </c>
       <c r="C105">
+        <v>0.08</v>
+      </c>
+      <c r="D105">
         <v>0.16</v>
       </c>
-      <c r="D105">
-        <v>0.15</v>
-      </c>
       <c r="E105">
+        <v>0.25</v>
+      </c>
+      <c r="F105">
         <v>0.12</v>
-      </c>
-      <c r="F105">
-        <v>0.09</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>LOIBAU</t>
+          <t>KamCed</t>
         </is>
       </c>
       <c r="C106">
+        <v>0.12</v>
+      </c>
+      <c r="D106">
+        <v>0.17</v>
+      </c>
+      <c r="E106">
         <v>0.23</v>
       </c>
-      <c r="D106">
+      <c r="F106">
         <v>0.18</v>
-      </c>
-      <c r="E106">
-        <v>0.15</v>
-      </c>
-      <c r="F106">
-        <v>0.11</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BODNIC</t>
+          <t>ChPe</t>
         </is>
       </c>
       <c r="C107">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="D107">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="E107">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="F107">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MISI</t>
+          <t>GoJu</t>
         </is>
       </c>
       <c r="C108">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="D108">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="E108">
+        <v>0.1</v>
+      </c>
+      <c r="F108">
         <v>0.08</v>
-      </c>
-      <c r="F108">
-        <v>0.06</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CHBUS</t>
+          <t>StMi</t>
         </is>
       </c>
       <c r="C109">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D109">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="E109">
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
       <c r="F109">
-        <v>0.15</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Heyphi</t>
+          <t>SeFa</t>
         </is>
       </c>
       <c r="C110">
-        <v>0.11</v>
+        <v>0.42</v>
       </c>
       <c r="D110">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E110">
+        <v>0.08</v>
+      </c>
+      <c r="F110">
         <v>0.09</v>
-      </c>
-      <c r="F110">
-        <v>0.05</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CORMI</t>
+          <t>BIDA</t>
         </is>
       </c>
       <c r="C111">
-        <v>0.12</v>
+        <v>0.34</v>
       </c>
       <c r="D111">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="E111">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="F111">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>JERO</t>
+          <t>MAMU</t>
         </is>
       </c>
       <c r="C112">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="D112">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E112">
+        <v>0.11</v>
+      </c>
+      <c r="F112">
         <v>0.09</v>
-      </c>
-      <c r="F112">
-        <v>0.06</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PIDAN</t>
-        </is>
+          <t>SKHY</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>0.3</v>
+      </c>
+      <c r="D113">
+        <v>0.29</v>
+      </c>
+      <c r="E113">
+        <v>0.38</v>
+      </c>
+      <c r="F113">
+        <v>0.2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>JBPI</t>
-        </is>
+          <t>DecBen</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>0.17</v>
+      </c>
+      <c r="D114">
+        <v>0.06</v>
+      </c>
+      <c r="E114">
+        <v>0.08</v>
+      </c>
+      <c r="F114">
+        <v>0.06</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ANPIS</t>
-        </is>
+          <t>LFK</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>0.09</v>
+      </c>
+      <c r="D115">
+        <v>0.08</v>
+      </c>
+      <c r="E115">
+        <v>0.05</v>
+      </c>
+      <c r="F115">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BONJO</t>
-        </is>
+          <t>GUDW</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>0.26</v>
+      </c>
+      <c r="D116">
+        <v>0.17</v>
+      </c>
+      <c r="E116">
+        <v>0.14</v>
+      </c>
+      <c r="F116">
+        <v>0.12</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>RATRA</t>
-        </is>
+          <t>ANQU</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>0.37</v>
+      </c>
+      <c r="D117">
+        <v>0.23</v>
+      </c>
+      <c r="E117">
+        <v>0.2</v>
+      </c>
+      <c r="F117">
+        <v>0.25</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ratseb</t>
+          <t>HETH</t>
         </is>
       </c>
       <c r="C118">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="D118">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="E118">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="F118">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>JCVAN</t>
-        </is>
-      </c>
-      <c r="C119">
-        <v>0.2</v>
-      </c>
-      <c r="D119">
-        <v>0.28</v>
-      </c>
-      <c r="E119">
-        <v>0.19</v>
-      </c>
-      <c r="F119">
-        <v>0.09</v>
+          <t>NORE</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RENPI</t>
+          <t>SIDE</t>
         </is>
       </c>
       <c r="C120">
-        <v>0.47</v>
+        <v>0.16</v>
       </c>
       <c r="D120">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="E120">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="F120">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>VANFRA</t>
+          <t>ANPI</t>
         </is>
       </c>
       <c r="C121">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="D121">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="E121">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="F121">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>JACVAN</t>
-        </is>
-      </c>
-      <c r="C122">
-        <v>0.5</v>
-      </c>
-      <c r="D122">
-        <v>0.47</v>
-      </c>
-      <c r="E122">
-        <v>0.52</v>
-      </c>
-      <c r="F122">
-        <v>0.27</v>
+          <t>ARWE</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FLOND</t>
+          <t>EMHO</t>
         </is>
       </c>
       <c r="C123">
+        <v>0.19</v>
+      </c>
+      <c r="D123">
+        <v>0.15</v>
+      </c>
+      <c r="E123">
         <v>0.17</v>
       </c>
-      <c r="D123">
+      <c r="F123">
         <v>0.25</v>
-      </c>
-      <c r="E123">
-        <v>0.21</v>
-      </c>
-      <c r="F123">
-        <v>0.19</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DinPhu</t>
-        </is>
-      </c>
-      <c r="C124">
-        <v>0.11</v>
-      </c>
-      <c r="D124">
-        <v>0.1</v>
-      </c>
-      <c r="E124">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F124">
-        <v>0.18</v>
+          <t>LOGO</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>LUMAR</t>
+          <t>RIVA</t>
         </is>
       </c>
       <c r="C125">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="D125">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="E125">
-        <v>0.18</v>
+        <v>3</v>
       </c>
       <c r="F125">
-        <v>0.14</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DaMo</t>
-        </is>
+          <t>OLHA</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>0.36</v>
+      </c>
+      <c r="D126">
+        <v>0.49</v>
+      </c>
+      <c r="E126">
+        <v>0.97</v>
+      </c>
+      <c r="F126">
+        <v>0.87</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GJJO</t>
-        </is>
+          <t>FAVE</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>0.21</v>
+      </c>
+      <c r="D127">
+        <v>0.16</v>
+      </c>
+      <c r="E127">
+        <v>0.12</v>
+      </c>
+      <c r="F127">
+        <v>0.13</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MAGEN</t>
-        </is>
+          <t>ELSO</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>0.26</v>
+      </c>
+      <c r="D128">
+        <v>0.2</v>
+      </c>
+      <c r="E128">
+        <v>0.26</v>
+      </c>
+      <c r="F128">
+        <v>0.19</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>POVI</t>
+          <t>JELE</t>
         </is>
       </c>
       <c r="C129">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D129">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="E129">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
       <c r="F129">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FRMA</t>
+          <t>MACO</t>
         </is>
       </c>
       <c r="C130">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="D130">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="E130">
-        <v>0.03</v>
+        <v>0.22</v>
       </c>
       <c r="F130">
-        <v>0.03</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
+        <v>134</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>GAJO</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>0.1</v>
+      </c>
+      <c r="D131">
+        <v>0.09</v>
+      </c>
+      <c r="E131">
+        <v>0.08</v>
+      </c>
+      <c r="F131">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>135</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>BOLE</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>0.16</v>
+      </c>
+      <c r="D132">
+        <v>0.15</v>
+      </c>
+      <c r="E132">
+        <v>0.12</v>
+      </c>
+      <c r="F132">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>136</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>LOIBAU</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>0.23</v>
+      </c>
+      <c r="D133">
+        <v>0.18</v>
+      </c>
+      <c r="E133">
+        <v>0.15</v>
+      </c>
+      <c r="F133">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>137</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>BODNIC</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>0.24</v>
+      </c>
+      <c r="D134">
+        <v>0.16</v>
+      </c>
+      <c r="E134">
+        <v>0.16</v>
+      </c>
+      <c r="F134">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>138</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>MISI</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>0.17</v>
+      </c>
+      <c r="D135">
+        <v>0.09</v>
+      </c>
+      <c r="E135">
+        <v>0.08</v>
+      </c>
+      <c r="F135">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>139</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>CHBUS</t>
+        </is>
+      </c>
+      <c r="C136">
+        <v>0.18</v>
+      </c>
+      <c r="D136">
+        <v>0.15</v>
+      </c>
+      <c r="E136">
+        <v>0.13</v>
+      </c>
+      <c r="F136">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>140</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Heyphi</t>
+        </is>
+      </c>
+      <c r="C137">
+        <v>0.11</v>
+      </c>
+      <c r="D137">
+        <v>0.15</v>
+      </c>
+      <c r="E137">
+        <v>0.09</v>
+      </c>
+      <c r="F137">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>141</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>CORMI</t>
+        </is>
+      </c>
+      <c r="C138">
+        <v>0.12</v>
+      </c>
+      <c r="D138">
+        <v>0.11</v>
+      </c>
+      <c r="E138">
+        <v>0.25</v>
+      </c>
+      <c r="F138">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>142</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Albfre</t>
+        </is>
+      </c>
+      <c r="C139">
+        <v>0.1</v>
+      </c>
+      <c r="D139">
+        <v>0.11</v>
+      </c>
+      <c r="E139">
+        <v>0.12</v>
+      </c>
+      <c r="F139">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>143</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>JERO</t>
+        </is>
+      </c>
+      <c r="C140">
+        <v>0.04</v>
+      </c>
+      <c r="D140">
+        <v>0.08</v>
+      </c>
+      <c r="E140">
+        <v>0.09</v>
+      </c>
+      <c r="F140">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>144</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>PIDAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>145</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>JBPI</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>147</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ANPIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>148</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ANGBEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>149</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>MABI</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>150</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>BONJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>151</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>RATRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>152</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Ratseb</t>
+        </is>
+      </c>
+      <c r="C149">
+        <v>0.24</v>
+      </c>
+      <c r="D149">
+        <v>0.25</v>
+      </c>
+      <c r="E149">
+        <v>0.22</v>
+      </c>
+      <c r="F149">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>153</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>GISGEO</t>
+        </is>
+      </c>
+      <c r="C150">
+        <v>0.38</v>
+      </c>
+      <c r="D150">
+        <v>0.41</v>
+      </c>
+      <c r="E150">
+        <v>0.36</v>
+      </c>
+      <c r="F150">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>154</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>JCVAN</t>
+        </is>
+      </c>
+      <c r="C151">
+        <v>0.2</v>
+      </c>
+      <c r="D151">
+        <v>0.28</v>
+      </c>
+      <c r="E151">
+        <v>0.19</v>
+      </c>
+      <c r="F151">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>155</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>RENPI</t>
+        </is>
+      </c>
+      <c r="C152">
+        <v>0.47</v>
+      </c>
+      <c r="D152">
+        <v>0.22</v>
+      </c>
+      <c r="E152">
+        <v>0.23</v>
+      </c>
+      <c r="F152">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>156</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>VANFRA</t>
+        </is>
+      </c>
+      <c r="C153">
+        <v>0.29</v>
+      </c>
+      <c r="D153">
+        <v>0.26</v>
+      </c>
+      <c r="E153">
+        <v>0.27</v>
+      </c>
+      <c r="F153">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>157</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>JuTin</t>
+        </is>
+      </c>
+      <c r="C154">
+        <v>0.16</v>
+      </c>
+      <c r="D154">
+        <v>0.21</v>
+      </c>
+      <c r="E154">
+        <v>0.2</v>
+      </c>
+      <c r="F154">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>160</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>JACVAN</t>
+        </is>
+      </c>
+      <c r="C155">
+        <v>0.5</v>
+      </c>
+      <c r="D155">
+        <v>0.47</v>
+      </c>
+      <c r="E155">
+        <v>0.52</v>
+      </c>
+      <c r="F155">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>181</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>FLOND</t>
+        </is>
+      </c>
+      <c r="C156">
+        <v>0.17</v>
+      </c>
+      <c r="D156">
+        <v>0.25</v>
+      </c>
+      <c r="E156">
+        <v>0.21</v>
+      </c>
+      <c r="F156">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>182</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>SIDM</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>183</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>BENI</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>184</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>DinPhu</t>
+        </is>
+      </c>
+      <c r="C159">
+        <v>0.11</v>
+      </c>
+      <c r="D159">
+        <v>0.1</v>
+      </c>
+      <c r="E159">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F159">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>185</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>LUMAR</t>
+        </is>
+      </c>
+      <c r="C160">
+        <v>0.17</v>
+      </c>
+      <c r="D160">
+        <v>0.17</v>
+      </c>
+      <c r="E160">
+        <v>0.18</v>
+      </c>
+      <c r="F160">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>186</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>DaMo</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>187</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>GJJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>188</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>MAGEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>189</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>POVI</t>
+        </is>
+      </c>
+      <c r="C164">
+        <v>0.05</v>
+      </c>
+      <c r="D164">
+        <v>0.17</v>
+      </c>
+      <c r="E164">
+        <v>0.02</v>
+      </c>
+      <c r="F164">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>190</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>FRMA</t>
+        </is>
+      </c>
+      <c r="C165">
+        <v>0.11</v>
+      </c>
+      <c r="D165">
+        <v>0.08</v>
+      </c>
+      <c r="E165">
+        <v>0.03</v>
+      </c>
+      <c r="F165">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>191</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>TBODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
         <v>192</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>GAUBRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>193</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ERMOO</t>
         </is>
       </c>
     </row>

--- a/Output/Cortisol.xlsx
+++ b/Output/Cortisol.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,20 +370,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>OKCort</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Corti1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Corti2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Corti3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Corti4</t>
         </is>
@@ -399,15 +404,18 @@
         </is>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.1</v>
-      </c>
-      <c r="D2">
-        <v>0.08</v>
       </c>
       <c r="E2">
         <v>0.08</v>
       </c>
       <c r="F2">
+        <v>0.08</v>
+      </c>
+      <c r="G2">
         <v>0.09</v>
       </c>
     </row>
@@ -421,15 +429,18 @@
         </is>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.06</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.12</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -443,3295 +454,2863 @@
         </is>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.21</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.55</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JeVe</t>
+          <t>YaMe</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.07000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D5">
+        <v>0.06</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
         <v>0.13</v>
       </c>
-      <c r="E5">
-        <v>0.31</v>
-      </c>
-      <c r="F5">
-        <v>0.23</v>
+      <c r="G5">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>YaMe</t>
+          <t>GbEl</t>
         </is>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.13</v>
+      </c>
+      <c r="E6">
+        <v>0.11</v>
+      </c>
+      <c r="F6">
+        <v>0.09</v>
+      </c>
+      <c r="G6">
         <v>0.06</v>
-      </c>
-      <c r="D6">
-        <v>0.1</v>
-      </c>
-      <c r="E6">
-        <v>0.13</v>
-      </c>
-      <c r="F6">
-        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GbEl</t>
+          <t>VoMa</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E7">
         <v>0.09</v>
       </c>
       <c r="F7">
-        <v>0.06</v>
+        <v>0.09</v>
+      </c>
+      <c r="G7">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MoTh</t>
+          <t>SoKa</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.11</v>
+        <v>0.35</v>
       </c>
       <c r="E8">
-        <v>0.09</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <v>0.06</v>
+        <v>0.41</v>
+      </c>
+      <c r="G8">
+        <v>0.31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VoMa</t>
+          <t>ZaHa</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="E9">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="F9">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
+      </c>
+      <c r="G9">
+        <v>0.03</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SoKa</t>
+          <t>NkPl</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
-        <v>0.41</v>
+        <v>0.11</v>
       </c>
       <c r="F10">
-        <v>0.31</v>
+        <v>0.11</v>
+      </c>
+      <c r="G10">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ZaHa</t>
+          <t>GeNg</t>
         </is>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.06</v>
+      </c>
+      <c r="E11">
+        <v>0.08</v>
+      </c>
+      <c r="F11">
+        <v>0.05</v>
+      </c>
+      <c r="G11">
         <v>0.04</v>
-      </c>
-      <c r="D11">
-        <v>0.03</v>
-      </c>
-      <c r="E11">
-        <v>0.02</v>
-      </c>
-      <c r="F11">
-        <v>0.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NkPl</t>
+          <t>AuKa</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E12">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="F12">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
+      </c>
+      <c r="G12">
+        <v>0.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GeNg</t>
+          <t>NgFl</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="E13">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="F13">
-        <v>0.04</v>
+        <v>0.23</v>
+      </c>
+      <c r="G13">
+        <v>0.39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AuKa</t>
+          <t>JaPa</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="E14">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="F14">
         <v>0.13</v>
       </c>
+      <c r="G14">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NgFl</t>
+          <t>AnPa</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="E15">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="F15">
-        <v>0.39</v>
+        <v>0.3</v>
+      </c>
+      <c r="G15">
+        <v>0.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>JaPa</t>
+          <t>VaDe</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E16">
+        <v>0.12</v>
+      </c>
+      <c r="F16">
+        <v>0.14</v>
+      </c>
+      <c r="G16">
         <v>0.13</v>
-      </c>
-      <c r="F16">
-        <v>0.83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AnPa</t>
+          <t>JeAx</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="E17">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="F17">
-        <v>0.22</v>
+        <v>0.1</v>
+      </c>
+      <c r="G17">
+        <v>0.09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VaDe</t>
+          <t>PeMa</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="E18">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="F18">
-        <v>0.13</v>
+        <v>0.15</v>
+      </c>
+      <c r="G18">
+        <v>0.11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MeTh</t>
+          <t>JaEd</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="E19">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F19">
-        <v>0.08</v>
+        <v>0.14</v>
+      </c>
+      <c r="G19">
+        <v>0.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VaTh</t>
+          <t>DuJu</t>
         </is>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.22</v>
+      </c>
+      <c r="E20">
+        <v>0.15</v>
+      </c>
+      <c r="F20">
+        <v>0.14</v>
+      </c>
+      <c r="G20">
         <v>0.11</v>
-      </c>
-      <c r="D20">
-        <v>0.15</v>
-      </c>
-      <c r="E20">
-        <v>0.12</v>
-      </c>
-      <c r="F20">
-        <v>0.12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JeAx</t>
+          <t>YaAdr</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="E21">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F21">
-        <v>0.09</v>
+        <v>0.11</v>
+      </c>
+      <c r="G21">
+        <v>0.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PeMa</t>
+          <t>SyGe</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="E22">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="F22">
-        <v>0.11</v>
+        <v>0.18</v>
+      </c>
+      <c r="G22">
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>JaEd</t>
+          <t>MaJe</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="E23">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="F23">
-        <v>0.09</v>
+        <v>0.12</v>
+      </c>
+      <c r="G23">
+        <v>0.24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KuOn</t>
+          <t>AnSo</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.35</v>
+        <v>0.69</v>
       </c>
       <c r="E24">
-        <v>0.27</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F24">
-        <v>0.13</v>
+        <v>0.09</v>
+      </c>
+      <c r="G24">
+        <v>0.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DuJu</t>
+          <t>ArGo</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="E25">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="F25">
-        <v>0.11</v>
+        <v>0.12</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>YaAdr</t>
+          <t>Mami</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="E26">
-        <v>0.11</v>
+        <v>0.55</v>
       </c>
       <c r="F26">
-        <v>0.11</v>
+        <v>0.33</v>
+      </c>
+      <c r="G26">
+        <v>0.31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SyGe</t>
+          <t>Vaga</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0.08</v>
+        <v>0.9</v>
       </c>
       <c r="E27">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="F27">
-        <v>0.2</v>
+        <v>0.43</v>
+      </c>
+      <c r="G27">
+        <v>0.71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MaJe</t>
+          <t>Piol</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0.1</v>
+        <v>0.41</v>
       </c>
       <c r="E28">
-        <v>0.12</v>
+        <v>0.41</v>
       </c>
       <c r="F28">
-        <v>0.24</v>
+        <v>0.31</v>
+      </c>
+      <c r="G28">
+        <v>0.65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AnSo</t>
+          <t>Fuda</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.69</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0.07000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="E29">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="F29">
         <v>0.3</v>
       </c>
+      <c r="G29">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ArGo</t>
+          <t>Brse</t>
         </is>
       </c>
       <c r="C30">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="E30">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="F30">
         <v>0.1</v>
       </c>
+      <c r="G30">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>YoCa</t>
+          <t>Bomo</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0.58</v>
+        <v>0.17</v>
       </c>
       <c r="E31">
-        <v>0.92</v>
+        <v>0.23</v>
       </c>
       <c r="F31">
-        <v>0.82</v>
+        <v>0.19</v>
+      </c>
+      <c r="G31">
+        <v>0.19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mami</t>
+          <t>Rase</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0.55</v>
+        <v>0.38</v>
       </c>
       <c r="E32">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="F32">
+        <v>0.59</v>
+      </c>
+      <c r="G32">
         <v>0.31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RiSt</t>
+          <t>Poma</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="E33">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="F33">
-        <v>0.33</v>
+        <v>0.09</v>
+      </c>
+      <c r="G33">
+        <v>0.05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Vaga</t>
+          <t>Yaer</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="E34">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
       <c r="F34">
+        <v>0.51</v>
+      </c>
+      <c r="G34">
         <v>0.71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Piol</t>
+          <t>Quwa</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0.41</v>
+        <v>0.19</v>
       </c>
       <c r="E35">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="F35">
-        <v>0.65</v>
+        <v>0.12</v>
+      </c>
+      <c r="G35">
+        <v>0.14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fuda</t>
+          <t>ElYo</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0.22</v>
       </c>
       <c r="E36">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="F36">
-        <v>0.29</v>
+        <v>0.19</v>
+      </c>
+      <c r="G36">
+        <v>0.14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Brse</t>
+          <t>Coch</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="E37">
-        <v>0.1</v>
+        <v>0.38</v>
       </c>
       <c r="F37">
-        <v>0.17</v>
+        <v>0.41</v>
+      </c>
+      <c r="G37">
+        <v>0.24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>JoAm</t>
-        </is>
+          <t>Vino</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.23</v>
+      </c>
+      <c r="E38">
+        <v>0.16</v>
+      </c>
+      <c r="F38">
+        <v>0.2</v>
+      </c>
+      <c r="G38">
+        <v>0.13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bomo</t>
+          <t>Bebl</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="E39">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="F39">
-        <v>0.19</v>
+        <v>0.11</v>
+      </c>
+      <c r="G39">
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Jeva</t>
+          <t>JosEst</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="E40">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="F40">
-        <v>0.21</v>
+        <v>0.2</v>
+      </c>
+      <c r="G40">
+        <v>1.63</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rase</t>
+          <t>HaJo</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="E41">
-        <v>0.59</v>
+        <v>0.14</v>
       </c>
       <c r="F41">
-        <v>0.31</v>
+        <v>0.13</v>
+      </c>
+      <c r="G41">
+        <v>0.13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Poma</t>
+          <t>HoYa</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0.09</v>
+        <v>0.54</v>
       </c>
       <c r="E42">
-        <v>0.09</v>
+        <v>0.34</v>
       </c>
       <c r="F42">
-        <v>0.05</v>
+        <v>0.31</v>
+      </c>
+      <c r="G42">
+        <v>0.18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Yiha</t>
+          <t>MaNa</t>
         </is>
       </c>
       <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0.31</v>
+      </c>
+      <c r="E43">
+        <v>0.22</v>
+      </c>
+      <c r="F43">
+        <v>0.17</v>
+      </c>
+      <c r="G43">
         <v>0.12</v>
-      </c>
-      <c r="D43">
-        <v>0.14</v>
-      </c>
-      <c r="E43">
-        <v>0.19</v>
-      </c>
-      <c r="F43">
-        <v>0.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Yaer</t>
+          <t>DeGa</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="E44">
-        <v>0.51</v>
+        <v>0.11</v>
       </c>
       <c r="F44">
-        <v>0.71</v>
+        <v>0.11</v>
+      </c>
+      <c r="G44">
+        <v>0.11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Quwa</t>
+          <t>HuLa</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>0.15</v>
       </c>
       <c r="E45">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="F45">
-        <v>0.14</v>
+        <v>0.08</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ElYo</t>
+          <t>MaGo</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="E46">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="F46">
-        <v>0.14</v>
+        <v>0.11</v>
+      </c>
+      <c r="G46">
+        <v>0.04</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HaAbd</t>
+          <t>DoIm</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="E47">
-        <v>0.36</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F47">
-        <v>0.25</v>
+        <v>0.05</v>
+      </c>
+      <c r="G47">
+        <v>0.03</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Coch</t>
+          <t>HaVa</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.37</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="E48">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="F48">
         <v>0.24</v>
       </c>
+      <c r="G48">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Vino</t>
+          <t>JoRo</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="E49">
+        <v>0.22</v>
+      </c>
+      <c r="F49">
         <v>0.2</v>
       </c>
-      <c r="F49">
-        <v>0.13</v>
+      <c r="G49">
+        <v>0.19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Bebl</t>
+          <t>MoKi</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>0.11</v>
+        <v>0.41</v>
       </c>
       <c r="E50">
-        <v>0.11</v>
+        <v>0.41</v>
       </c>
       <c r="F50">
-        <v>0.1</v>
+        <v>0.33</v>
+      </c>
+      <c r="G50">
+        <v>0.34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>JosEst</t>
+          <t>DeKo</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="E51">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="F51">
-        <v>1.63</v>
+        <v>0.11</v>
+      </c>
+      <c r="G51">
+        <v>0.08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HaJo</t>
+          <t>DeTi</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>0.14</v>
+        <v>0.38</v>
       </c>
       <c r="E52">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="F52">
-        <v>0.13</v>
+        <v>0.17</v>
+      </c>
+      <c r="G52">
+        <v>0.11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HoYa</t>
+          <t>SaSy</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="E53">
         <v>0.31</v>
       </c>
       <c r="F53">
-        <v>0.18</v>
+        <v>0.24</v>
+      </c>
+      <c r="G53">
+        <v>0.23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GeMa</t>
+          <t>KaMo</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E54">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F54">
-        <v>0.07000000000000001</v>
+        <v>0.36</v>
+      </c>
+      <c r="G54">
+        <v>0.64</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MaNa</t>
+          <t>HagAnd</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>0.22</v>
+        <v>0.73</v>
       </c>
       <c r="E55">
-        <v>0.17</v>
+        <v>0.54</v>
       </c>
       <c r="F55">
-        <v>0.12</v>
+        <v>0.28</v>
+      </c>
+      <c r="G55">
+        <v>0.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DeGa</t>
+          <t>NgoRoy</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>0.11</v>
+        <v>0.64</v>
       </c>
       <c r="E56">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="F56">
-        <v>0.11</v>
+        <v>0.35</v>
+      </c>
+      <c r="G56">
+        <v>0.62</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HuLa</t>
+          <t>MonChri</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="E57">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>0.23</v>
+      </c>
+      <c r="G57">
+        <v>0.16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MaGo</t>
+          <t>LetLuc</t>
         </is>
       </c>
       <c r="C58">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>0.15</v>
+        <v>0.46</v>
       </c>
       <c r="E58">
-        <v>0.11</v>
+        <v>1.17</v>
       </c>
       <c r="F58">
-        <v>0.04</v>
+        <v>0.99</v>
+      </c>
+      <c r="G58">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>OzMo</t>
+          <t>KalDim</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="E59">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="F59">
-        <v>0.21</v>
+        <v>0.13</v>
+      </c>
+      <c r="G59">
+        <v>0.1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DoIm</t>
+          <t>HabCha</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="E60">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="F60">
-        <v>0.03</v>
+        <v>0.11</v>
+      </c>
+      <c r="G60">
+        <v>0.06</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>HaVa</t>
+          <t>BoucIli</t>
         </is>
       </c>
       <c r="C61">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E61">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="F61">
         <v>0.11</v>
       </c>
+      <c r="G61">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JoRo</t>
+          <t>DaiAnt</t>
         </is>
       </c>
       <c r="C62">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="D62">
+        <v>0.26</v>
+      </c>
+      <c r="E62">
         <v>0.22</v>
       </c>
-      <c r="E62">
+      <c r="F62">
+        <v>0.24</v>
+      </c>
+      <c r="G62">
         <v>0.2</v>
-      </c>
-      <c r="F62">
-        <v>0.19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MaBi</t>
+          <t>LemAnd</t>
         </is>
       </c>
       <c r="C63">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="D63">
+        <v>0.09</v>
+      </c>
+      <c r="E63">
         <v>0.08</v>
       </c>
-      <c r="E63">
-        <v>0.11</v>
-      </c>
       <c r="F63">
-        <v>0.12</v>
+        <v>0.06</v>
+      </c>
+      <c r="G63">
+        <v>0.04</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MoKi</t>
+          <t>FlSm</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="E64">
+        <v>0.26</v>
+      </c>
+      <c r="F64">
+        <v>0.23</v>
+      </c>
+      <c r="G64">
         <v>0.33</v>
-      </c>
-      <c r="F64">
-        <v>0.34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DeKo</t>
+          <t>DIEAL</t>
         </is>
       </c>
       <c r="C65">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="E65">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F65">
-        <v>0.08</v>
+        <v>0.06</v>
+      </c>
+      <c r="G65">
+        <v>0.09</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MoDa</t>
+          <t>SHEAY</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="E66">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="F66">
-        <v>0.2</v>
+        <v>0.08</v>
+      </c>
+      <c r="G66">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Nanu</t>
+          <t>AbDo</t>
         </is>
       </c>
       <c r="C67">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="E67">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="F67">
-        <v>0.03</v>
+        <v>0.12</v>
+      </c>
+      <c r="G67">
+        <v>0.08</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DeTi</t>
+          <t>ElYa</t>
         </is>
       </c>
       <c r="C68">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>0.31</v>
       </c>
       <c r="E68">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="F68">
-        <v>0.11</v>
+        <v>0.18</v>
+      </c>
+      <c r="G68">
+        <v>0.1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NyEd</t>
+          <t>XaRi</t>
         </is>
       </c>
       <c r="C69">
-        <v>0.28</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="E69">
-        <v>0.23</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F69">
-        <v>0.22</v>
+        <v>0.06</v>
+      </c>
+      <c r="G69">
+        <v>0.05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SaSy</t>
+          <t>NiLe</t>
         </is>
       </c>
       <c r="C70">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="E70">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="F70">
-        <v>0.23</v>
+        <v>0.08</v>
+      </c>
+      <c r="G70">
+        <v>0.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>KaMo</t>
+          <t>LaYa</t>
         </is>
       </c>
       <c r="C71">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="E71">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="F71">
-        <v>0.64</v>
+        <v>0.14</v>
+      </c>
+      <c r="G71">
+        <v>0.08</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BukJma</t>
+          <t>JOSZEN</t>
         </is>
       </c>
       <c r="C72">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="E72">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="F72">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="G72">
+        <v>0.03</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>HagAnd</t>
+          <t>AliTem</t>
         </is>
       </c>
       <c r="C73">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>0.54</v>
+        <v>0.28</v>
       </c>
       <c r="E73">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="F73">
-        <v>0.3</v>
+        <v>0.38</v>
+      </c>
+      <c r="G73">
+        <v>0.27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NgoRoy</t>
+          <t>kether</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="E74">
-        <v>0.35</v>
+        <v>0.84</v>
       </c>
       <c r="F74">
-        <v>0.62</v>
+        <v>1.11</v>
+      </c>
+      <c r="G74">
+        <v>0.49</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MonChri</t>
+          <t>KamCed</t>
         </is>
       </c>
       <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0.12</v>
+      </c>
+      <c r="E75">
         <v>0.17</v>
       </c>
-      <c r="D75">
-        <v>0.21</v>
-      </c>
-      <c r="E75">
+      <c r="F75">
         <v>0.23</v>
       </c>
-      <c r="F75">
-        <v>0.16</v>
+      <c r="G75">
+        <v>0.18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LetLuc</t>
+          <t>ChPe</t>
         </is>
       </c>
       <c r="C76">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>1.17</v>
+        <v>0.15</v>
       </c>
       <c r="E76">
-        <v>0.99</v>
+        <v>0.13</v>
       </c>
       <c r="F76">
-        <v>0.5600000000000001</v>
+        <v>0.19</v>
+      </c>
+      <c r="G76">
+        <v>0.09</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KalDim</t>
+          <t>GoJu</t>
         </is>
       </c>
       <c r="C77">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="E77">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F77">
         <v>0.1</v>
       </c>
+      <c r="G77">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HabCha</t>
+          <t>StMi</t>
         </is>
       </c>
       <c r="C78">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E78">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F78">
-        <v>0.06</v>
+        <v>0.39</v>
+      </c>
+      <c r="G78">
+        <v>0.54</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BoucIli</t>
+          <t>SeFa</t>
         </is>
       </c>
       <c r="C79">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>0.12</v>
+        <v>0.42</v>
       </c>
       <c r="E79">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="F79">
-        <v>0.13</v>
+        <v>0.08</v>
+      </c>
+      <c r="G79">
+        <v>0.09</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DaiAnt</t>
+          <t>BIDA</t>
         </is>
       </c>
       <c r="C80">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="E80">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="F80">
-        <v>0.2</v>
+        <v>0.34</v>
+      </c>
+      <c r="G80">
+        <v>0.17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LemAnd</t>
+          <t>DecBen</t>
         </is>
       </c>
       <c r="C81">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="E81">
         <v>0.06</v>
       </c>
       <c r="F81">
-        <v>0.04</v>
+        <v>0.08</v>
+      </c>
+      <c r="G81">
+        <v>0.06</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FlSm</t>
+          <t>LFK</t>
         </is>
       </c>
       <c r="C82">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="E82">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="F82">
-        <v>0.33</v>
+        <v>0.05</v>
+      </c>
+      <c r="G82">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRENI</t>
-        </is>
+          <t>GUDW</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0.26</v>
+      </c>
+      <c r="E83">
+        <v>0.17</v>
+      </c>
+      <c r="F83">
+        <v>0.14</v>
+      </c>
+      <c r="G83">
+        <v>0.12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIALI</t>
-        </is>
+          <t>ANQU</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0.37</v>
+      </c>
+      <c r="E84">
+        <v>0.23</v>
+      </c>
+      <c r="F84">
+        <v>0.2</v>
+      </c>
+      <c r="G84">
+        <v>0.25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>COMAX</t>
-        </is>
+          <t>HETH</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0.13</v>
+      </c>
+      <c r="E85">
+        <v>0.15</v>
+      </c>
+      <c r="F85">
+        <v>0.15</v>
+      </c>
+      <c r="G85">
+        <v>0.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ASKEV</t>
-        </is>
+          <t>ANPI</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0.17</v>
+      </c>
+      <c r="E86">
+        <v>0.17</v>
+      </c>
+      <c r="F86">
+        <v>0.3</v>
+      </c>
+      <c r="G86">
+        <v>0.31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CHLO</t>
-        </is>
+          <t>EMHO</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0.19</v>
+      </c>
+      <c r="E87">
+        <v>0.15</v>
+      </c>
+      <c r="F87">
+        <v>0.17</v>
+      </c>
+      <c r="G87">
+        <v>0.25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>HABEN</t>
-        </is>
+          <t>RIVA</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0.14</v>
+      </c>
+      <c r="E88">
+        <v>0.1</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>0.018</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DIEAL</t>
+          <t>OLHA</t>
         </is>
       </c>
       <c r="C89">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>0.08</v>
+        <v>0.36</v>
       </c>
       <c r="E89">
-        <v>0.06</v>
+        <v>0.49</v>
       </c>
       <c r="F89">
-        <v>0.09</v>
+        <v>0.97</v>
+      </c>
+      <c r="G89">
+        <v>0.87</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SHEAY</t>
+          <t>FAVE</t>
         </is>
       </c>
       <c r="C90">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="E90">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="F90">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
+      </c>
+      <c r="G90">
+        <v>0.13</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>AbDo</t>
+          <t>ELSO</t>
         </is>
       </c>
       <c r="C91">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="E91">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="F91">
-        <v>0.08</v>
+        <v>0.26</v>
+      </c>
+      <c r="G91">
+        <v>0.19</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ElYa</t>
+          <t>JELE</t>
         </is>
       </c>
       <c r="C92">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="E92">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="F92">
-        <v>0.1</v>
+        <v>0.28</v>
+      </c>
+      <c r="G92">
+        <v>0.39</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>XaRi</t>
+          <t>MACO</t>
         </is>
       </c>
       <c r="C93">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="E93">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
       <c r="F93">
-        <v>0.05</v>
+        <v>0.22</v>
+      </c>
+      <c r="G93">
+        <v>0.22</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NiLe</t>
+          <t>GAJO</t>
         </is>
       </c>
       <c r="C94">
-        <v>0.28</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="E94">
+        <v>0.09</v>
+      </c>
+      <c r="F94">
         <v>0.08</v>
       </c>
-      <c r="F94">
-        <v>0.1</v>
+      <c r="G94">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LaYa</t>
+          <t>BOLE</t>
         </is>
       </c>
       <c r="C95">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="E95">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F95">
-        <v>0.08</v>
+        <v>0.12</v>
+      </c>
+      <c r="G95">
+        <v>0.09</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Makedg</t>
+          <t>LOIBAU</t>
         </is>
       </c>
       <c r="C96">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="E96">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="F96">
-        <v>0.16</v>
+        <v>0.15</v>
+      </c>
+      <c r="G96">
+        <v>0.11</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Melgant</t>
+          <t>BODNIC</t>
         </is>
       </c>
       <c r="C97">
-        <v>0.07000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="E97">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="F97">
-        <v>0.04</v>
+        <v>0.16</v>
+      </c>
+      <c r="G97">
+        <v>0.16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Boubil</t>
+          <t>MISI</t>
         </is>
       </c>
       <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0.17</v>
+      </c>
+      <c r="E98">
         <v>0.09</v>
       </c>
-      <c r="D98">
+      <c r="F98">
+        <v>0.08</v>
+      </c>
+      <c r="G98">
         <v>0.06</v>
-      </c>
-      <c r="E98">
-        <v>0.05</v>
-      </c>
-      <c r="F98">
-        <v>0.04</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JOSZEN</t>
+          <t>CHBUS</t>
         </is>
       </c>
       <c r="C99">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="E99">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="F99">
-        <v>0.03</v>
+        <v>0.13</v>
+      </c>
+      <c r="G99">
+        <v>0.15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>OlBo</t>
-        </is>
+          <t>Heyphi</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0.11</v>
+      </c>
+      <c r="E100">
+        <v>0.15</v>
+      </c>
+      <c r="F100">
+        <v>0.09</v>
+      </c>
+      <c r="G100">
+        <v>0.05</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>LOCOUA</t>
+          <t>CORMI</t>
         </is>
       </c>
       <c r="C101">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="E101">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="F101">
-        <v>0.09</v>
+        <v>0.25</v>
+      </c>
+      <c r="G101">
+        <v>0.08</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CaIb</t>
+          <t>JERO</t>
         </is>
       </c>
       <c r="C102">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D102">
+        <v>0.04</v>
+      </c>
+      <c r="E102">
         <v>0.08</v>
       </c>
-      <c r="E102">
-        <v>0.12</v>
-      </c>
       <c r="F102">
-        <v>0.11</v>
+        <v>0.09</v>
+      </c>
+      <c r="G102">
+        <v>0.06</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>AliTem</t>
+          <t>Ratseb</t>
         </is>
       </c>
       <c r="C103">
-        <v>0.28</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="E103">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="F103">
-        <v>0.27</v>
+        <v>0.22</v>
+      </c>
+      <c r="G103">
+        <v>0.16</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>kether</t>
+          <t>JCVAN</t>
         </is>
       </c>
       <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0.2</v>
+      </c>
+      <c r="E104">
         <v>0.28</v>
       </c>
-      <c r="D104">
-        <v>0.84</v>
-      </c>
-      <c r="E104">
-        <v>1.11</v>
-      </c>
       <c r="F104">
-        <v>0.49</v>
+        <v>0.19</v>
+      </c>
+      <c r="G104">
+        <v>0.09</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>LecJer</t>
+          <t>RENPI</t>
         </is>
       </c>
       <c r="C105">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="D105">
+        <v>0.47</v>
+      </c>
+      <c r="E105">
+        <v>0.22</v>
+      </c>
+      <c r="F105">
+        <v>0.23</v>
+      </c>
+      <c r="G105">
         <v>0.16</v>
-      </c>
-      <c r="E105">
-        <v>0.25</v>
-      </c>
-      <c r="F105">
-        <v>0.12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KamCed</t>
+          <t>VANFRA</t>
         </is>
       </c>
       <c r="C106">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="E106">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F106">
+        <v>0.27</v>
+      </c>
+      <c r="G106">
         <v>0.18</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ChPe</t>
+          <t>JACVAN</t>
         </is>
       </c>
       <c r="C107">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="E107">
-        <v>0.19</v>
+        <v>0.47</v>
       </c>
       <c r="F107">
-        <v>0.09</v>
+        <v>0.52</v>
+      </c>
+      <c r="G107">
+        <v>0.27</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>GoJu</t>
+          <t>FLOND</t>
         </is>
       </c>
       <c r="C108">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="E108">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F108">
-        <v>0.08</v>
+        <v>0.21</v>
+      </c>
+      <c r="G108">
+        <v>0.19</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>StMi</t>
+          <t>DinPhu</t>
         </is>
       </c>
       <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>0.11</v>
+      </c>
+      <c r="E109">
+        <v>0.1</v>
+      </c>
+      <c r="F109">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D109">
-        <v>0.09</v>
-      </c>
-      <c r="E109">
-        <v>0.39</v>
-      </c>
-      <c r="F109">
-        <v>0.54</v>
+      <c r="G109">
+        <v>0.18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SeFa</t>
+          <t>LUMAR</t>
         </is>
       </c>
       <c r="C110">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="E110">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="F110">
-        <v>0.09</v>
+        <v>0.18</v>
+      </c>
+      <c r="G110">
+        <v>0.14</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BIDA</t>
+          <t>POVI</t>
         </is>
       </c>
       <c r="C111">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="E111">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="F111">
-        <v>0.17</v>
+        <v>0.02</v>
+      </c>
+      <c r="G111">
+        <v>0.24</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MAMU</t>
+          <t>FRMA</t>
         </is>
       </c>
       <c r="C112">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E112">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F112">
-        <v>0.09</v>
+        <v>0.03</v>
+      </c>
+      <c r="G112">
+        <v>0.03</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>SKHY</t>
-        </is>
+        <v>200</v>
       </c>
       <c r="C113">
-        <v>0.3</v>
-      </c>
-      <c r="D113">
-        <v>0.29</v>
-      </c>
-      <c r="E113">
-        <v>0.38</v>
-      </c>
-      <c r="F113">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>DecBen</t>
-        </is>
+        <v>201</v>
       </c>
       <c r="C114">
-        <v>0.17</v>
-      </c>
-      <c r="D114">
-        <v>0.06</v>
-      </c>
-      <c r="E114">
-        <v>0.08</v>
-      </c>
-      <c r="F114">
-        <v>0.06</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>LFK</t>
-        </is>
+        <v>203</v>
       </c>
       <c r="C115">
-        <v>0.09</v>
-      </c>
-      <c r="D115">
-        <v>0.08</v>
-      </c>
-      <c r="E115">
-        <v>0.05</v>
-      </c>
-      <c r="F115">
-        <v>0.07000000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>119</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>GUDW</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="C116">
-        <v>0.26</v>
-      </c>
-      <c r="D116">
-        <v>0.17</v>
-      </c>
-      <c r="E116">
-        <v>0.14</v>
-      </c>
-      <c r="F116">
-        <v>0.12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>120</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>ANQU</t>
-        </is>
+        <v>205</v>
       </c>
       <c r="C117">
-        <v>0.37</v>
-      </c>
-      <c r="D117">
-        <v>0.23</v>
-      </c>
-      <c r="E117">
-        <v>0.2</v>
-      </c>
-      <c r="F117">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>121</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>HETH</t>
-        </is>
+        <v>206</v>
       </c>
       <c r="C118">
-        <v>0.13</v>
-      </c>
-      <c r="D118">
-        <v>0.15</v>
-      </c>
-      <c r="E118">
-        <v>0.15</v>
-      </c>
-      <c r="F118">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>122</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>NORE</t>
-        </is>
+        <v>207</v>
+      </c>
+      <c r="C119">
+        <v>-1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>123</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>SIDE</t>
-        </is>
+        <v>208</v>
       </c>
       <c r="C120">
-        <v>0.16</v>
-      </c>
-      <c r="D120">
-        <v>0.1</v>
-      </c>
-      <c r="E120">
-        <v>0.1</v>
-      </c>
-      <c r="F120">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>124</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>ANPI</t>
-        </is>
+        <v>210</v>
       </c>
       <c r="C121">
-        <v>0.17</v>
-      </c>
-      <c r="D121">
-        <v>0.17</v>
-      </c>
-      <c r="E121">
-        <v>0.3</v>
-      </c>
-      <c r="F121">
-        <v>0.31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>125</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>ARWE</t>
-        </is>
+        <v>211</v>
+      </c>
+      <c r="C122">
+        <v>-1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>126</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>EMHO</t>
-        </is>
+        <v>212</v>
       </c>
       <c r="C123">
-        <v>0.19</v>
-      </c>
-      <c r="D123">
-        <v>0.15</v>
-      </c>
-      <c r="E123">
-        <v>0.17</v>
-      </c>
-      <c r="F123">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>127</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>LOGO</t>
-        </is>
+        <v>213</v>
+      </c>
+      <c r="C124">
+        <v>-1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>128</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>RIVA</t>
-        </is>
+        <v>214</v>
       </c>
       <c r="C125">
-        <v>0.14</v>
-      </c>
-      <c r="D125">
-        <v>0.1</v>
-      </c>
-      <c r="E125">
-        <v>3</v>
-      </c>
-      <c r="F125">
-        <v>0.018</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>129</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>OLHA</t>
-        </is>
+        <v>215</v>
       </c>
       <c r="C126">
-        <v>0.36</v>
-      </c>
-      <c r="D126">
-        <v>0.49</v>
-      </c>
-      <c r="E126">
-        <v>0.97</v>
-      </c>
-      <c r="F126">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>130</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>FAVE</t>
-        </is>
+        <v>216</v>
       </c>
       <c r="C127">
-        <v>0.21</v>
-      </c>
-      <c r="D127">
-        <v>0.16</v>
-      </c>
-      <c r="E127">
-        <v>0.12</v>
-      </c>
-      <c r="F127">
-        <v>0.13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>131</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>ELSO</t>
-        </is>
+        <v>217</v>
       </c>
       <c r="C128">
-        <v>0.26</v>
-      </c>
-      <c r="D128">
-        <v>0.2</v>
-      </c>
-      <c r="E128">
-        <v>0.26</v>
-      </c>
-      <c r="F128">
-        <v>0.19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>132</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>JELE</t>
-        </is>
+        <v>218</v>
       </c>
       <c r="C129">
-        <v>0.1</v>
-      </c>
-      <c r="D129">
-        <v>0.13</v>
-      </c>
-      <c r="E129">
-        <v>0.28</v>
-      </c>
-      <c r="F129">
-        <v>0.39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>133</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>MACO</t>
-        </is>
+        <v>219</v>
       </c>
       <c r="C130">
-        <v>0.25</v>
-      </c>
-      <c r="D130">
-        <v>0.22</v>
-      </c>
-      <c r="E130">
-        <v>0.22</v>
-      </c>
-      <c r="F130">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>134</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>GAJO</t>
-        </is>
-      </c>
-      <c r="C131">
-        <v>0.1</v>
-      </c>
-      <c r="D131">
-        <v>0.09</v>
-      </c>
-      <c r="E131">
-        <v>0.08</v>
-      </c>
-      <c r="F131">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>135</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>BOLE</t>
-        </is>
-      </c>
-      <c r="C132">
-        <v>0.16</v>
-      </c>
-      <c r="D132">
-        <v>0.15</v>
-      </c>
-      <c r="E132">
-        <v>0.12</v>
-      </c>
-      <c r="F132">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>136</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>LOIBAU</t>
-        </is>
-      </c>
-      <c r="C133">
-        <v>0.23</v>
-      </c>
-      <c r="D133">
-        <v>0.18</v>
-      </c>
-      <c r="E133">
-        <v>0.15</v>
-      </c>
-      <c r="F133">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>137</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>BODNIC</t>
-        </is>
-      </c>
-      <c r="C134">
-        <v>0.24</v>
-      </c>
-      <c r="D134">
-        <v>0.16</v>
-      </c>
-      <c r="E134">
-        <v>0.16</v>
-      </c>
-      <c r="F134">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>138</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>MISI</t>
-        </is>
-      </c>
-      <c r="C135">
-        <v>0.17</v>
-      </c>
-      <c r="D135">
-        <v>0.09</v>
-      </c>
-      <c r="E135">
-        <v>0.08</v>
-      </c>
-      <c r="F135">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>139</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>CHBUS</t>
-        </is>
-      </c>
-      <c r="C136">
-        <v>0.18</v>
-      </c>
-      <c r="D136">
-        <v>0.15</v>
-      </c>
-      <c r="E136">
-        <v>0.13</v>
-      </c>
-      <c r="F136">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>140</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Heyphi</t>
-        </is>
-      </c>
-      <c r="C137">
-        <v>0.11</v>
-      </c>
-      <c r="D137">
-        <v>0.15</v>
-      </c>
-      <c r="E137">
-        <v>0.09</v>
-      </c>
-      <c r="F137">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>141</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>CORMI</t>
-        </is>
-      </c>
-      <c r="C138">
-        <v>0.12</v>
-      </c>
-      <c r="D138">
-        <v>0.11</v>
-      </c>
-      <c r="E138">
-        <v>0.25</v>
-      </c>
-      <c r="F138">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>142</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Albfre</t>
-        </is>
-      </c>
-      <c r="C139">
-        <v>0.1</v>
-      </c>
-      <c r="D139">
-        <v>0.11</v>
-      </c>
-      <c r="E139">
-        <v>0.12</v>
-      </c>
-      <c r="F139">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>143</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>JERO</t>
-        </is>
-      </c>
-      <c r="C140">
-        <v>0.04</v>
-      </c>
-      <c r="D140">
-        <v>0.08</v>
-      </c>
-      <c r="E140">
-        <v>0.09</v>
-      </c>
-      <c r="F140">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>144</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>PIDAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>145</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>JBPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144">
-        <v>147</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>ANPIS</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145">
-        <v>148</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>ANGBEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146">
-        <v>149</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>MABI</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147">
-        <v>150</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>BONJO</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148">
-        <v>151</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>RATRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149">
-        <v>152</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Ratseb</t>
-        </is>
-      </c>
-      <c r="C149">
-        <v>0.24</v>
-      </c>
-      <c r="D149">
-        <v>0.25</v>
-      </c>
-      <c r="E149">
-        <v>0.22</v>
-      </c>
-      <c r="F149">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150">
-        <v>153</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>GISGEO</t>
-        </is>
-      </c>
-      <c r="C150">
-        <v>0.38</v>
-      </c>
-      <c r="D150">
-        <v>0.41</v>
-      </c>
-      <c r="E150">
-        <v>0.36</v>
-      </c>
-      <c r="F150">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151">
-        <v>154</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>JCVAN</t>
-        </is>
-      </c>
-      <c r="C151">
-        <v>0.2</v>
-      </c>
-      <c r="D151">
-        <v>0.28</v>
-      </c>
-      <c r="E151">
-        <v>0.19</v>
-      </c>
-      <c r="F151">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152">
-        <v>155</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>RENPI</t>
-        </is>
-      </c>
-      <c r="C152">
-        <v>0.47</v>
-      </c>
-      <c r="D152">
-        <v>0.22</v>
-      </c>
-      <c r="E152">
-        <v>0.23</v>
-      </c>
-      <c r="F152">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153">
-        <v>156</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>VANFRA</t>
-        </is>
-      </c>
-      <c r="C153">
-        <v>0.29</v>
-      </c>
-      <c r="D153">
-        <v>0.26</v>
-      </c>
-      <c r="E153">
-        <v>0.27</v>
-      </c>
-      <c r="F153">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154">
-        <v>157</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>JuTin</t>
-        </is>
-      </c>
-      <c r="C154">
-        <v>0.16</v>
-      </c>
-      <c r="D154">
-        <v>0.21</v>
-      </c>
-      <c r="E154">
-        <v>0.2</v>
-      </c>
-      <c r="F154">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155">
-        <v>160</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>JACVAN</t>
-        </is>
-      </c>
-      <c r="C155">
-        <v>0.5</v>
-      </c>
-      <c r="D155">
-        <v>0.47</v>
-      </c>
-      <c r="E155">
-        <v>0.52</v>
-      </c>
-      <c r="F155">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156">
-        <v>181</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>FLOND</t>
-        </is>
-      </c>
-      <c r="C156">
-        <v>0.17</v>
-      </c>
-      <c r="D156">
-        <v>0.25</v>
-      </c>
-      <c r="E156">
-        <v>0.21</v>
-      </c>
-      <c r="F156">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157">
-        <v>182</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>SIDM</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158">
-        <v>183</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>BENI</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159">
-        <v>184</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>DinPhu</t>
-        </is>
-      </c>
-      <c r="C159">
-        <v>0.11</v>
-      </c>
-      <c r="D159">
-        <v>0.1</v>
-      </c>
-      <c r="E159">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F159">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160">
-        <v>185</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>LUMAR</t>
-        </is>
-      </c>
-      <c r="C160">
-        <v>0.17</v>
-      </c>
-      <c r="D160">
-        <v>0.17</v>
-      </c>
-      <c r="E160">
-        <v>0.18</v>
-      </c>
-      <c r="F160">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161">
-        <v>186</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>DaMo</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162">
-        <v>187</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>GJJO</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163">
-        <v>188</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>MAGEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164">
-        <v>189</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>POVI</t>
-        </is>
-      </c>
-      <c r="C164">
-        <v>0.05</v>
-      </c>
-      <c r="D164">
-        <v>0.17</v>
-      </c>
-      <c r="E164">
-        <v>0.02</v>
-      </c>
-      <c r="F164">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165">
-        <v>190</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>FRMA</t>
-        </is>
-      </c>
-      <c r="C165">
-        <v>0.11</v>
-      </c>
-      <c r="D165">
-        <v>0.08</v>
-      </c>
-      <c r="E165">
-        <v>0.03</v>
-      </c>
-      <c r="F165">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166">
-        <v>191</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>TBODE</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167">
-        <v>192</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>GAUBRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168">
-        <v>193</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>ERMOO</t>
-        </is>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
